--- a/MidiThru10/midithru10_bom.xlsx
+++ b/MidiThru10/midithru10_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/_home/_schemes/_Midi/MidiThru/MidiThru10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiThru10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61E35DE-7599-3C4D-824B-8659B919F002}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931305CD-FB5E-7340-A5EF-21ACD1928A82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16400" xr2:uid="{B1A2F949-7E6C-8644-8E19-B56F3D22CDD7}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{B1A2F949-7E6C-8644-8E19-B56F3D22CDD7}"/>
   </bookViews>
   <sheets>
     <sheet name="midithru10" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="231">
   <si>
     <t>D</t>
   </si>
@@ -272,9 +272,6 @@
   </si>
   <si>
     <t>JP1</t>
-  </si>
-  <si>
-    <t>Pin_Headers:Pin_Header_Straight_1x03_Pitch2.54mm</t>
   </si>
   <si>
     <t>Dual jumper, normally closed</t>
@@ -1073,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ271"/>
+  <dimension ref="A1:AJ270"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1118,7 +1115,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B1" t="s">
         <v>55</v>
@@ -1127,7 +1124,7 @@
         <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E1">
         <v>3</v>
@@ -1141,10 +1138,10 @@
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1158,10 +1155,10 @@
         <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1169,7 +1166,7 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1200,7 +1197,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -1234,24 +1231,24 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>223</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1263,12 +1260,12 @@
         <v>224</v>
       </c>
       <c r="E9">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1277,7 +1274,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1285,70 +1282,79 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>231</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
+      <c r="R14" t="s">
+        <v>14</v>
+      </c>
+      <c r="S14" t="s">
+        <v>107</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="V14" t="s">
+        <v>108</v>
+      </c>
+      <c r="W14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
@@ -1356,22 +1362,22 @@
         <v>14</v>
       </c>
       <c r="S15" t="s">
+        <v>107</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="V15" t="s">
         <v>108</v>
       </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>109</v>
       </c>
-      <c r="W15" t="s">
-        <v>110</v>
-      </c>
       <c r="AA15" t="s">
         <v>2</v>
       </c>
       <c r="AB15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC15" t="s">
         <v>114</v>
@@ -1382,25 +1388,25 @@
         <v>14</v>
       </c>
       <c r="S16" t="s">
+        <v>107</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="V16" t="s">
         <v>108</v>
       </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>109</v>
       </c>
-      <c r="W16" t="s">
-        <v>110</v>
-      </c>
       <c r="AA16" t="s">
         <v>2</v>
       </c>
       <c r="AB16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="18:29" x14ac:dyDescent="0.2">
@@ -1408,22 +1414,22 @@
         <v>14</v>
       </c>
       <c r="S17" t="s">
+        <v>107</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="V17" t="s">
         <v>108</v>
       </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>109</v>
       </c>
-      <c r="W17" t="s">
-        <v>110</v>
-      </c>
       <c r="AA17" t="s">
         <v>2</v>
       </c>
       <c r="AB17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC17" t="s">
         <v>114</v>
@@ -1434,25 +1440,25 @@
         <v>14</v>
       </c>
       <c r="S18" t="s">
+        <v>107</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="V18" t="s">
         <v>108</v>
       </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>109</v>
       </c>
-      <c r="W18" t="s">
-        <v>110</v>
-      </c>
       <c r="AA18" t="s">
         <v>2</v>
       </c>
       <c r="AB18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="18:29" x14ac:dyDescent="0.2">
@@ -1460,22 +1466,22 @@
         <v>14</v>
       </c>
       <c r="S19" t="s">
+        <v>107</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="V19" t="s">
         <v>108</v>
       </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>109</v>
       </c>
-      <c r="W19" t="s">
-        <v>110</v>
-      </c>
       <c r="AA19" t="s">
         <v>2</v>
       </c>
       <c r="AB19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC19" t="s">
         <v>114</v>
@@ -1486,25 +1492,25 @@
         <v>14</v>
       </c>
       <c r="S20" t="s">
+        <v>107</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="V20" t="s">
         <v>108</v>
       </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>109</v>
       </c>
-      <c r="W20" t="s">
-        <v>110</v>
-      </c>
       <c r="AA20" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="AB20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="18:29" x14ac:dyDescent="0.2">
@@ -1512,25 +1518,25 @@
         <v>14</v>
       </c>
       <c r="S21" t="s">
+        <v>107</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="V21" t="s">
         <v>108</v>
       </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>109</v>
       </c>
-      <c r="W21" t="s">
-        <v>110</v>
-      </c>
       <c r="AA21" t="s">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="AB21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="18:29" x14ac:dyDescent="0.2">
@@ -1538,25 +1544,25 @@
         <v>14</v>
       </c>
       <c r="S22" t="s">
+        <v>107</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="V22" t="s">
         <v>108</v>
       </c>
-      <c r="T22">
-        <v>1</v>
-      </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>109</v>
       </c>
-      <c r="W22" t="s">
-        <v>110</v>
-      </c>
       <c r="AA22" t="s">
         <v>2</v>
       </c>
       <c r="AB22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="18:29" x14ac:dyDescent="0.2">
@@ -1564,22 +1570,22 @@
         <v>14</v>
       </c>
       <c r="S23" t="s">
+        <v>107</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="V23" t="s">
         <v>108</v>
       </c>
-      <c r="T23">
-        <v>1</v>
-      </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>109</v>
       </c>
-      <c r="W23" t="s">
-        <v>110</v>
-      </c>
       <c r="AA23" t="s">
         <v>2</v>
       </c>
       <c r="AB23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC23" t="s">
         <v>114</v>
@@ -1590,25 +1596,25 @@
         <v>14</v>
       </c>
       <c r="S24" t="s">
+        <v>107</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="V24" t="s">
         <v>108</v>
       </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>109</v>
       </c>
-      <c r="W24" t="s">
-        <v>110</v>
-      </c>
       <c r="AA24" t="s">
         <v>2</v>
       </c>
       <c r="AB24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="18:29" x14ac:dyDescent="0.2">
@@ -1616,22 +1622,22 @@
         <v>14</v>
       </c>
       <c r="S25" t="s">
+        <v>107</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="V25" t="s">
         <v>108</v>
       </c>
-      <c r="T25">
-        <v>1</v>
-      </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>109</v>
       </c>
-      <c r="W25" t="s">
-        <v>110</v>
-      </c>
       <c r="AA25" t="s">
         <v>2</v>
       </c>
       <c r="AB25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC25" t="s">
         <v>114</v>
@@ -1642,25 +1648,25 @@
         <v>14</v>
       </c>
       <c r="S26" t="s">
+        <v>107</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="V26" t="s">
         <v>108</v>
       </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>109</v>
       </c>
-      <c r="W26" t="s">
-        <v>110</v>
-      </c>
       <c r="AA26" t="s">
         <v>2</v>
       </c>
       <c r="AB26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="18:29" x14ac:dyDescent="0.2">
@@ -1668,51 +1674,45 @@
         <v>14</v>
       </c>
       <c r="S27" t="s">
+        <v>107</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="V27" t="s">
         <v>108</v>
       </c>
-      <c r="T27">
-        <v>1</v>
-      </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>109</v>
       </c>
-      <c r="W27" t="s">
-        <v>110</v>
-      </c>
       <c r="AA27" t="s">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="AB27">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R28" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="S28" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="T28">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="U28" t="s">
+        <v>118</v>
       </c>
       <c r="V28" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="W28" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB28">
-        <v>14</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>117</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="18:29" x14ac:dyDescent="0.2">
@@ -1725,14 +1725,17 @@
       <c r="T29">
         <v>2</v>
       </c>
-      <c r="U29" t="s">
-        <v>119</v>
-      </c>
       <c r="V29" t="s">
         <v>81</v>
       </c>
       <c r="W29" t="s">
         <v>2</v>
+      </c>
+      <c r="X29" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="18:29" x14ac:dyDescent="0.2">
@@ -1752,10 +1755,10 @@
         <v>2</v>
       </c>
       <c r="X30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y30" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="18:29" x14ac:dyDescent="0.2">
@@ -1774,11 +1777,8 @@
       <c r="W31" t="s">
         <v>2</v>
       </c>
-      <c r="X31" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>82</v>
+      <c r="Z31" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="18:29" x14ac:dyDescent="0.2">
@@ -1797,7 +1797,13 @@
       <c r="W32" t="s">
         <v>2</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB32">
+        <v>1</v>
+      </c>
+      <c r="AC32" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1821,10 +1827,10 @@
         <v>2</v>
       </c>
       <c r="AB33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="18:29" x14ac:dyDescent="0.2">
@@ -1832,25 +1838,22 @@
         <v>26</v>
       </c>
       <c r="S34" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="T34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V34" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="W34" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB34">
-        <v>2</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>122</v>
+        <v>23</v>
+      </c>
+      <c r="X34" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="18:29" x14ac:dyDescent="0.2">
@@ -1870,10 +1873,10 @@
         <v>23</v>
       </c>
       <c r="X35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y35" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="18:29" x14ac:dyDescent="0.2">
@@ -1892,11 +1895,8 @@
       <c r="W36" t="s">
         <v>23</v>
       </c>
-      <c r="X36" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>27</v>
+      <c r="Z36" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="18:29" x14ac:dyDescent="0.2">
@@ -1915,8 +1915,14 @@
       <c r="W37" t="s">
         <v>23</v>
       </c>
-      <c r="Z37" t="s">
-        <v>123</v>
+      <c r="AA37" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB37">
+        <v>1</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="18:29" x14ac:dyDescent="0.2">
@@ -1939,10 +1945,10 @@
         <v>2</v>
       </c>
       <c r="AB38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="18:29" x14ac:dyDescent="0.2">
@@ -1965,10 +1971,10 @@
         <v>2</v>
       </c>
       <c r="AB39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="18:29" x14ac:dyDescent="0.2">
@@ -1991,10 +1997,10 @@
         <v>2</v>
       </c>
       <c r="AB40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="18:29" x14ac:dyDescent="0.2">
@@ -2017,36 +2023,33 @@
         <v>2</v>
       </c>
       <c r="AB41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R42" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="S42" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="T42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V42" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="W42" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB42">
-        <v>5</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>122</v>
+        <v>2</v>
+      </c>
+      <c r="X42" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="18:29" x14ac:dyDescent="0.2">
@@ -2066,7 +2069,7 @@
         <v>2</v>
       </c>
       <c r="X43" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y43" t="s">
         <v>57</v>
@@ -2088,11 +2091,8 @@
       <c r="W44" t="s">
         <v>2</v>
       </c>
-      <c r="X44" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>57</v>
+      <c r="Z44" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="18:29" x14ac:dyDescent="0.2">
@@ -2111,8 +2111,14 @@
       <c r="W45" t="s">
         <v>2</v>
       </c>
-      <c r="Z45" t="s">
-        <v>124</v>
+      <c r="AA45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB45">
+        <v>1</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="18:29" x14ac:dyDescent="0.2">
@@ -2135,10 +2141,10 @@
         <v>2</v>
       </c>
       <c r="AB46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="18:29" x14ac:dyDescent="0.2">
@@ -2146,25 +2152,22 @@
         <v>5</v>
       </c>
       <c r="S47" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="T47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V47" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="W47" t="s">
         <v>2</v>
       </c>
-      <c r="AA47" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB47">
-        <v>2</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>122</v>
+      <c r="X47" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="18:29" x14ac:dyDescent="0.2">
@@ -2184,7 +2187,7 @@
         <v>2</v>
       </c>
       <c r="X48" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y48" t="s">
         <v>0</v>
@@ -2206,11 +2209,8 @@
       <c r="W49" t="s">
         <v>2</v>
       </c>
-      <c r="X49" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>0</v>
+      <c r="Z49" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="18:29" x14ac:dyDescent="0.2">
@@ -2289,8 +2289,14 @@
       <c r="W53" t="s">
         <v>2</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="AA53" t="s">
         <v>128</v>
+      </c>
+      <c r="AB53">
+        <v>1</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="18:29" x14ac:dyDescent="0.2">
@@ -2313,10 +2319,10 @@
         <v>129</v>
       </c>
       <c r="AB54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="18:29" x14ac:dyDescent="0.2">
@@ -2324,25 +2330,22 @@
         <v>5</v>
       </c>
       <c r="S55" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="T55">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V55" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="W55" t="s">
         <v>2</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="X55" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y55" t="s">
         <v>130</v>
-      </c>
-      <c r="AB55">
-        <v>2</v>
-      </c>
-      <c r="AC55" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="56" spans="18:29" x14ac:dyDescent="0.2">
@@ -2350,22 +2353,22 @@
         <v>5</v>
       </c>
       <c r="S56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T56">
         <v>6</v>
       </c>
       <c r="V56" t="s">
+        <v>84</v>
+      </c>
+      <c r="W56" t="s">
+        <v>2</v>
+      </c>
+      <c r="X56" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y56" t="s">
         <v>85</v>
-      </c>
-      <c r="W56" t="s">
-        <v>2</v>
-      </c>
-      <c r="X56" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="57" spans="18:29" x14ac:dyDescent="0.2">
@@ -2373,22 +2376,25 @@
         <v>5</v>
       </c>
       <c r="S57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T57">
         <v>6</v>
       </c>
       <c r="V57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W57" t="s">
         <v>2</v>
       </c>
-      <c r="X57" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>86</v>
+      <c r="AA57">
+        <v>1</v>
+      </c>
+      <c r="AB57">
+        <v>1</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="18:29" x14ac:dyDescent="0.2">
@@ -2396,25 +2402,25 @@
         <v>5</v>
       </c>
       <c r="S58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T58">
         <v>6</v>
       </c>
       <c r="V58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W58" t="s">
         <v>2</v>
       </c>
       <c r="AA58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="18:29" x14ac:dyDescent="0.2">
@@ -2422,25 +2428,25 @@
         <v>5</v>
       </c>
       <c r="S59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T59">
         <v>6</v>
       </c>
       <c r="V59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W59" t="s">
         <v>2</v>
       </c>
       <c r="AA59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="18:29" x14ac:dyDescent="0.2">
@@ -2448,25 +2454,22 @@
         <v>5</v>
       </c>
       <c r="S60" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="T60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V60" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="W60" t="s">
         <v>2</v>
       </c>
-      <c r="AA60">
-        <v>3</v>
-      </c>
-      <c r="AB60">
-        <v>3</v>
-      </c>
-      <c r="AC60" t="s">
-        <v>122</v>
+      <c r="X60" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="18:29" x14ac:dyDescent="0.2">
@@ -2486,10 +2489,10 @@
         <v>2</v>
       </c>
       <c r="X61" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y61" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="18:29" x14ac:dyDescent="0.2">
@@ -2508,11 +2511,8 @@
       <c r="W62" t="s">
         <v>2</v>
       </c>
-      <c r="X62" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>6</v>
+      <c r="Z62" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="18:29" x14ac:dyDescent="0.2">
@@ -2571,8 +2571,14 @@
       <c r="W65" t="s">
         <v>2</v>
       </c>
-      <c r="Z65" t="s">
-        <v>134</v>
+      <c r="AA65" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB65">
+        <v>1</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="18:29" x14ac:dyDescent="0.2">
@@ -2595,10 +2601,10 @@
         <v>129</v>
       </c>
       <c r="AB66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="18:29" x14ac:dyDescent="0.2">
@@ -2606,25 +2612,22 @@
         <v>5</v>
       </c>
       <c r="S67" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T67">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V67" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="W67" t="s">
         <v>2</v>
       </c>
-      <c r="AA67" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB67">
-        <v>2</v>
-      </c>
-      <c r="AC67" t="s">
-        <v>122</v>
+      <c r="X67" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="18:29" x14ac:dyDescent="0.2">
@@ -2644,7 +2647,7 @@
         <v>2</v>
       </c>
       <c r="X68" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y68" t="s">
         <v>10</v>
@@ -2666,11 +2669,8 @@
       <c r="W69" t="s">
         <v>2</v>
       </c>
-      <c r="X69" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>10</v>
+      <c r="Z69" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="18:29" x14ac:dyDescent="0.2">
@@ -2689,8 +2689,14 @@
       <c r="W70" t="s">
         <v>2</v>
       </c>
-      <c r="Z70" t="s">
-        <v>135</v>
+      <c r="AA70" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB70">
+        <v>1</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="18:29" x14ac:dyDescent="0.2">
@@ -2713,36 +2719,30 @@
         <v>2</v>
       </c>
       <c r="AB71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R72" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="S72" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="T72">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="U72" t="s">
+        <v>135</v>
       </c>
       <c r="V72" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="W72" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA72" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB72">
-        <v>2</v>
-      </c>
-      <c r="AC72" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="18:29" x14ac:dyDescent="0.2">
@@ -2755,14 +2755,17 @@
       <c r="T73">
         <v>9</v>
       </c>
-      <c r="U73" t="s">
-        <v>136</v>
-      </c>
       <c r="V73" t="s">
         <v>64</v>
       </c>
       <c r="W73" t="s">
         <v>62</v>
+      </c>
+      <c r="X73" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="18:29" x14ac:dyDescent="0.2">
@@ -2782,10 +2785,10 @@
         <v>62</v>
       </c>
       <c r="X74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y74" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="18:29" x14ac:dyDescent="0.2">
@@ -2804,11 +2807,8 @@
       <c r="W75" t="s">
         <v>62</v>
       </c>
-      <c r="X75" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>66</v>
+      <c r="Z75" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="18:29" x14ac:dyDescent="0.2">
@@ -2847,8 +2847,14 @@
       <c r="W77" t="s">
         <v>62</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="AA77" t="s">
         <v>138</v>
+      </c>
+      <c r="AB77">
+        <v>1</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="18:29" x14ac:dyDescent="0.2">
@@ -2868,13 +2874,13 @@
         <v>62</v>
       </c>
       <c r="AA78" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="AB78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC78" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="18:29" x14ac:dyDescent="0.2">
@@ -2894,13 +2900,13 @@
         <v>62</v>
       </c>
       <c r="AA79" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="AB79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC79" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="18:29" x14ac:dyDescent="0.2">
@@ -2920,13 +2926,13 @@
         <v>62</v>
       </c>
       <c r="AA80" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AB80">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC80" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="18:29" x14ac:dyDescent="0.2">
@@ -2946,13 +2952,13 @@
         <v>62</v>
       </c>
       <c r="AA81" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="AB81">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC81" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="18:29" x14ac:dyDescent="0.2">
@@ -2972,13 +2978,13 @@
         <v>62</v>
       </c>
       <c r="AA82" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="AB82">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83" spans="18:29" x14ac:dyDescent="0.2">
@@ -3001,10 +3007,10 @@
         <v>141</v>
       </c>
       <c r="AB83">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC83" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="18:29" x14ac:dyDescent="0.2">
@@ -3024,421 +3030,403 @@
         <v>62</v>
       </c>
       <c r="AA84" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="AB84">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R85" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="S85" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="T85">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V85" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="W85" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA85" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB85">
-        <v>8</v>
-      </c>
-      <c r="AC85" t="s">
-        <v>122</v>
+        <v>87</v>
+      </c>
+      <c r="X85" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R86" t="s">
+        <v>92</v>
+      </c>
+      <c r="S86" t="s">
         <v>93</v>
-      </c>
-      <c r="S86" t="s">
-        <v>94</v>
       </c>
       <c r="T86">
         <v>10</v>
       </c>
       <c r="V86" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X86" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y86" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R87" t="s">
+        <v>92</v>
+      </c>
+      <c r="S87" t="s">
         <v>93</v>
-      </c>
-      <c r="S87" t="s">
-        <v>94</v>
       </c>
       <c r="T87">
         <v>10</v>
       </c>
       <c r="V87" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X87" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="Y87" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R88" t="s">
+        <v>92</v>
+      </c>
+      <c r="S88" t="s">
         <v>93</v>
-      </c>
-      <c r="S88" t="s">
-        <v>94</v>
       </c>
       <c r="T88">
         <v>10</v>
       </c>
       <c r="V88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X88" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y88" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R89" t="s">
+        <v>92</v>
+      </c>
+      <c r="S89" t="s">
         <v>93</v>
-      </c>
-      <c r="S89" t="s">
-        <v>94</v>
       </c>
       <c r="T89">
         <v>10</v>
       </c>
       <c r="V89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X89" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="Y89" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R90" t="s">
+        <v>92</v>
+      </c>
+      <c r="S90" t="s">
         <v>93</v>
-      </c>
-      <c r="S90" t="s">
-        <v>94</v>
       </c>
       <c r="T90">
         <v>10</v>
       </c>
       <c r="V90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X90" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y90" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R91" t="s">
+        <v>92</v>
+      </c>
+      <c r="S91" t="s">
         <v>93</v>
-      </c>
-      <c r="S91" t="s">
-        <v>94</v>
       </c>
       <c r="T91">
         <v>10</v>
       </c>
       <c r="V91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W91" t="s">
+        <v>87</v>
+      </c>
+      <c r="X91" t="s">
         <v>88</v>
       </c>
-      <c r="X91" t="s">
-        <v>103</v>
-      </c>
       <c r="Y91" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R92" t="s">
+        <v>92</v>
+      </c>
+      <c r="S92" t="s">
         <v>93</v>
-      </c>
-      <c r="S92" t="s">
-        <v>94</v>
       </c>
       <c r="T92">
         <v>10</v>
       </c>
       <c r="V92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W92" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X92" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="Y92" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R93" t="s">
+        <v>92</v>
+      </c>
+      <c r="S93" t="s">
         <v>93</v>
-      </c>
-      <c r="S93" t="s">
-        <v>94</v>
       </c>
       <c r="T93">
         <v>10</v>
       </c>
       <c r="V93" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X93" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="Y93" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R94" t="s">
+        <v>92</v>
+      </c>
+      <c r="S94" t="s">
         <v>93</v>
-      </c>
-      <c r="S94" t="s">
-        <v>94</v>
       </c>
       <c r="T94">
         <v>10</v>
       </c>
       <c r="V94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W94" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X94" t="s">
         <v>95</v>
       </c>
       <c r="Y94" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R95" t="s">
+        <v>92</v>
+      </c>
+      <c r="S95" t="s">
         <v>93</v>
-      </c>
-      <c r="S95" t="s">
-        <v>94</v>
       </c>
       <c r="T95">
         <v>10</v>
       </c>
       <c r="V95" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X95" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y95" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R96" t="s">
+        <v>92</v>
+      </c>
+      <c r="S96" t="s">
         <v>93</v>
-      </c>
-      <c r="S96" t="s">
-        <v>94</v>
       </c>
       <c r="T96">
         <v>10</v>
       </c>
       <c r="V96" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W96" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X96" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Y96" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="18:36" x14ac:dyDescent="0.2">
       <c r="R97" t="s">
+        <v>92</v>
+      </c>
+      <c r="S97" t="s">
         <v>93</v>
-      </c>
-      <c r="S97" t="s">
-        <v>94</v>
       </c>
       <c r="T97">
         <v>10</v>
       </c>
       <c r="V97" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W97" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Y97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="18:36" x14ac:dyDescent="0.2">
       <c r="R98" t="s">
+        <v>92</v>
+      </c>
+      <c r="S98" t="s">
         <v>93</v>
-      </c>
-      <c r="S98" t="s">
-        <v>94</v>
       </c>
       <c r="T98">
         <v>10</v>
       </c>
       <c r="V98" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W98" t="s">
-        <v>88</v>
-      </c>
-      <c r="X98" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y98" t="s">
-        <v>107</v>
+        <v>87</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB98">
+        <v>1</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="18:36" x14ac:dyDescent="0.2">
       <c r="R99" t="s">
+        <v>92</v>
+      </c>
+      <c r="S99" t="s">
         <v>93</v>
-      </c>
-      <c r="S99" t="s">
-        <v>94</v>
       </c>
       <c r="T99">
         <v>10</v>
       </c>
       <c r="V99" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W99" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA99" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="AB99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC99" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="18:36" x14ac:dyDescent="0.2">
       <c r="R100" t="s">
+        <v>92</v>
+      </c>
+      <c r="S100" t="s">
         <v>93</v>
-      </c>
-      <c r="S100" t="s">
-        <v>94</v>
       </c>
       <c r="T100">
         <v>10</v>
       </c>
       <c r="V100" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W100" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA100" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="AB100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC100" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101" spans="18:36" x14ac:dyDescent="0.2">
-      <c r="R101" t="s">
-        <v>93</v>
-      </c>
-      <c r="S101" t="s">
-        <v>94</v>
-      </c>
-      <c r="T101">
-        <v>10</v>
-      </c>
-      <c r="V101" t="s">
-        <v>92</v>
-      </c>
-      <c r="W101" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA101" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB101">
-        <v>3</v>
-      </c>
-      <c r="AC101" t="s">
+      <c r="AD101" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE101" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="102" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD102" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AE102" t="s">
         <v>149</v>
@@ -3446,7 +3434,7 @@
     </row>
     <row r="103" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD103" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="AE103" t="s">
         <v>150</v>
@@ -3454,7 +3442,7 @@
     </row>
     <row r="104" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD104" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="AE104" t="s">
         <v>151</v>
@@ -3462,18 +3450,27 @@
     </row>
     <row r="105" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD105" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="AE105" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="106" spans="18:36" x14ac:dyDescent="0.2">
-      <c r="AD106" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE106" t="s">
+      <c r="AF106">
+        <v>1</v>
+      </c>
+      <c r="AG106" t="s">
         <v>153</v>
+      </c>
+      <c r="AH106">
+        <v>1</v>
+      </c>
+      <c r="AI106">
+        <v>2</v>
+      </c>
+      <c r="AJ106" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="18:36" x14ac:dyDescent="0.2">
@@ -3481,7 +3478,7 @@
         <v>1</v>
       </c>
       <c r="AG107" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AH107">
         <v>1</v>
@@ -3490,24 +3487,24 @@
         <v>2</v>
       </c>
       <c r="AJ107" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AF108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG108" t="s">
         <v>154</v>
       </c>
       <c r="AH108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI108">
         <v>2</v>
       </c>
       <c r="AJ108" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="18:36" x14ac:dyDescent="0.2">
@@ -3515,33 +3512,33 @@
         <v>2</v>
       </c>
       <c r="AG109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AH109">
         <v>2</v>
       </c>
       <c r="AI109">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ109" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AF110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG110" t="s">
         <v>155</v>
       </c>
       <c r="AH110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI110">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ110" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="18:36" x14ac:dyDescent="0.2">
@@ -3549,33 +3546,33 @@
         <v>3</v>
       </c>
       <c r="AG111" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AH111">
         <v>3</v>
       </c>
       <c r="AI111">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ111" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AF112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG112" t="s">
         <v>156</v>
       </c>
       <c r="AH112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI112">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ112" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="32:36" x14ac:dyDescent="0.2">
@@ -3583,30 +3580,30 @@
         <v>4</v>
       </c>
       <c r="AG113" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AH113">
         <v>4</v>
       </c>
       <c r="AI113">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ113" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF114">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG114" t="s">
         <v>157</v>
       </c>
       <c r="AH114">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI114">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ114" t="s">
         <v>11</v>
@@ -3617,33 +3614,33 @@
         <v>5</v>
       </c>
       <c r="AG115" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AH115">
         <v>5</v>
       </c>
       <c r="AI115">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AJ115" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF116">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG116" t="s">
         <v>158</v>
       </c>
       <c r="AH116">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ116" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" spans="32:36" x14ac:dyDescent="0.2">
@@ -3651,33 +3648,33 @@
         <v>6</v>
       </c>
       <c r="AG117" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AH117">
         <v>6</v>
       </c>
       <c r="AI117">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ117" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF118">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG118" t="s">
         <v>159</v>
       </c>
       <c r="AH118">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI118">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AJ118" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="32:36" x14ac:dyDescent="0.2">
@@ -3685,33 +3682,33 @@
         <v>7</v>
       </c>
       <c r="AG119" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AH119">
         <v>7</v>
       </c>
       <c r="AI119">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AJ119" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF120">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG120" t="s">
         <v>160</v>
       </c>
       <c r="AH120">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI120">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AJ120" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" spans="32:36" x14ac:dyDescent="0.2">
@@ -3719,33 +3716,33 @@
         <v>8</v>
       </c>
       <c r="AG121" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AH121">
         <v>8</v>
       </c>
       <c r="AI121">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AJ121" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF122">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG122" t="s">
         <v>161</v>
       </c>
       <c r="AH122">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ122" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="32:36" x14ac:dyDescent="0.2">
@@ -3753,7 +3750,7 @@
         <v>9</v>
       </c>
       <c r="AG123" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AH123">
         <v>9</v>
@@ -3762,38 +3759,38 @@
         <v>1</v>
       </c>
       <c r="AJ123" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF124">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG124" t="s">
         <v>162</v>
       </c>
       <c r="AH124">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI124">
         <v>1</v>
       </c>
       <c r="AJ124" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF125">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG125" t="s">
         <v>163</v>
       </c>
       <c r="AH125">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ125" t="s">
         <v>22</v>
@@ -3801,33 +3798,33 @@
     </row>
     <row r="126" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF126">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG126" t="s">
         <v>164</v>
       </c>
       <c r="AH126">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ126" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF127">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG127" t="s">
         <v>165</v>
       </c>
       <c r="AH127">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ127" t="s">
         <v>28</v>
@@ -3835,33 +3832,33 @@
     </row>
     <row r="128" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF128">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG128" t="s">
         <v>166</v>
       </c>
       <c r="AH128">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ128" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF129">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG129" t="s">
         <v>167</v>
       </c>
       <c r="AH129">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ129" t="s">
         <v>29</v>
@@ -3869,33 +3866,33 @@
     </row>
     <row r="130" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF130">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG130" t="s">
         <v>168</v>
       </c>
       <c r="AH130">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ130" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="131" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF131">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG131" t="s">
         <v>169</v>
       </c>
       <c r="AH131">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ131" t="s">
         <v>30</v>
@@ -3903,19 +3900,19 @@
     </row>
     <row r="132" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF132">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG132" t="s">
         <v>170</v>
       </c>
       <c r="AH132">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ132" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" spans="32:36" x14ac:dyDescent="0.2">
@@ -3923,33 +3920,33 @@
         <v>18</v>
       </c>
       <c r="AG133" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH133">
         <v>18</v>
       </c>
       <c r="AI133">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ133" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF134">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG134" t="s">
         <v>171</v>
       </c>
       <c r="AH134">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI134">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ134" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="135" spans="32:36" x14ac:dyDescent="0.2">
@@ -3957,33 +3954,33 @@
         <v>19</v>
       </c>
       <c r="AG135" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AH135">
         <v>19</v>
       </c>
       <c r="AI135">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ135" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="136" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF136">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG136" t="s">
         <v>172</v>
       </c>
       <c r="AH136">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI136">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ136" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="137" spans="32:36" x14ac:dyDescent="0.2">
@@ -3991,33 +3988,33 @@
         <v>20</v>
       </c>
       <c r="AG137" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AH137">
         <v>20</v>
       </c>
       <c r="AI137">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ137" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF138">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG138" t="s">
         <v>173</v>
       </c>
       <c r="AH138">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI138">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ138" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="139" spans="32:36" x14ac:dyDescent="0.2">
@@ -4025,33 +4022,33 @@
         <v>21</v>
       </c>
       <c r="AG139" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AH139">
         <v>21</v>
       </c>
       <c r="AI139">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ139" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="140" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF140">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG140" t="s">
         <v>174</v>
       </c>
       <c r="AH140">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI140">
         <v>4</v>
       </c>
       <c r="AJ140" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="141" spans="32:36" x14ac:dyDescent="0.2">
@@ -4059,33 +4056,33 @@
         <v>22</v>
       </c>
       <c r="AG141" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AH141">
         <v>22</v>
       </c>
       <c r="AI141">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ141" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF142">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG142" t="s">
         <v>175</v>
       </c>
       <c r="AH142">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI142">
         <v>2</v>
       </c>
       <c r="AJ142" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="143" spans="32:36" x14ac:dyDescent="0.2">
@@ -4093,30 +4090,30 @@
         <v>23</v>
       </c>
       <c r="AG143" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AH143">
         <v>23</v>
       </c>
       <c r="AI143">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ143" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="144" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF144">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG144" t="s">
         <v>176</v>
       </c>
       <c r="AH144">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI144">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AJ144" t="s">
         <v>35</v>
@@ -4127,13 +4124,13 @@
         <v>24</v>
       </c>
       <c r="AG145" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AH145">
         <v>24</v>
       </c>
       <c r="AI145">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ145" t="s">
         <v>35</v>
@@ -4144,13 +4141,13 @@
         <v>24</v>
       </c>
       <c r="AG146" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AH146">
         <v>24</v>
       </c>
       <c r="AI146">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ146" t="s">
         <v>35</v>
@@ -4161,16 +4158,16 @@
         <v>24</v>
       </c>
       <c r="AG147" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AH147">
         <v>24</v>
       </c>
       <c r="AI147">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ147" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148" spans="32:36" x14ac:dyDescent="0.2">
@@ -4178,16 +4175,16 @@
         <v>24</v>
       </c>
       <c r="AG148" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AH148">
         <v>24</v>
       </c>
       <c r="AI148">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AJ148" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="149" spans="32:36" x14ac:dyDescent="0.2">
@@ -4195,16 +4192,16 @@
         <v>24</v>
       </c>
       <c r="AG149" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AH149">
         <v>24</v>
       </c>
       <c r="AI149">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AJ149" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150" spans="32:36" x14ac:dyDescent="0.2">
@@ -4212,13 +4209,13 @@
         <v>24</v>
       </c>
       <c r="AG150" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AH150">
         <v>24</v>
       </c>
       <c r="AI150">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AJ150" t="s">
         <v>11</v>
@@ -4229,16 +4226,16 @@
         <v>24</v>
       </c>
       <c r="AG151" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AH151">
         <v>24</v>
       </c>
       <c r="AI151">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AJ151" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="152" spans="32:36" x14ac:dyDescent="0.2">
@@ -4246,13 +4243,13 @@
         <v>24</v>
       </c>
       <c r="AG152" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AH152">
         <v>24</v>
       </c>
       <c r="AI152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ152" t="s">
         <v>35</v>
@@ -4263,16 +4260,16 @@
         <v>24</v>
       </c>
       <c r="AG153" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AH153">
         <v>24</v>
       </c>
       <c r="AI153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ153" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154" spans="32:36" x14ac:dyDescent="0.2">
@@ -4280,13 +4277,13 @@
         <v>24</v>
       </c>
       <c r="AG154" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AH154">
         <v>24</v>
       </c>
       <c r="AI154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ154" t="s">
         <v>11</v>
@@ -4297,13 +4294,13 @@
         <v>24</v>
       </c>
       <c r="AG155" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AH155">
         <v>24</v>
       </c>
       <c r="AI155">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ155" t="s">
         <v>11</v>
@@ -4311,19 +4308,19 @@
     </row>
     <row r="156" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF156">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG156" t="s">
         <v>177</v>
       </c>
       <c r="AH156">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI156">
         <v>5</v>
       </c>
       <c r="AJ156" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="157" spans="32:36" x14ac:dyDescent="0.2">
@@ -4331,30 +4328,30 @@
         <v>25</v>
       </c>
       <c r="AG157" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AH157">
         <v>25</v>
       </c>
       <c r="AI157">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ157" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="158" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF158">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG158" t="s">
         <v>178</v>
       </c>
       <c r="AH158">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ158" t="s">
         <v>36</v>
@@ -4365,30 +4362,30 @@
         <v>26</v>
       </c>
       <c r="AG159" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AH159">
         <v>26</v>
       </c>
       <c r="AI159">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="160" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF160">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG160" t="s">
         <v>179</v>
       </c>
       <c r="AH160">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI160">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ160" t="s">
         <v>35</v>
@@ -4399,33 +4396,33 @@
         <v>27</v>
       </c>
       <c r="AG161" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AH161">
         <v>27</v>
       </c>
       <c r="AI161">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AJ161" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="162" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF162">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG162" t="s">
         <v>180</v>
       </c>
       <c r="AH162">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ162" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="163" spans="32:36" x14ac:dyDescent="0.2">
@@ -4433,33 +4430,33 @@
         <v>28</v>
       </c>
       <c r="AG163" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AH163">
         <v>28</v>
       </c>
       <c r="AI163">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ163" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="164" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF164">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG164" t="s">
         <v>181</v>
       </c>
       <c r="AH164">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI164">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ164" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="165" spans="32:36" x14ac:dyDescent="0.2">
@@ -4467,33 +4464,33 @@
         <v>29</v>
       </c>
       <c r="AG165" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AH165">
         <v>29</v>
       </c>
       <c r="AI165">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AJ165" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="166" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF166">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG166" t="s">
         <v>182</v>
       </c>
       <c r="AH166">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI166">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AJ166" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="167" spans="32:36" x14ac:dyDescent="0.2">
@@ -4501,33 +4498,33 @@
         <v>30</v>
       </c>
       <c r="AG167" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AH167">
         <v>30</v>
       </c>
       <c r="AI167">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AJ167" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="168" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF168">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG168" t="s">
         <v>183</v>
       </c>
       <c r="AH168">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AI168">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AJ168" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="169" spans="32:36" x14ac:dyDescent="0.2">
@@ -4535,33 +4532,33 @@
         <v>31</v>
       </c>
       <c r="AG169" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AH169">
         <v>31</v>
       </c>
       <c r="AI169">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ169" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="170" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF170">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AG170" t="s">
         <v>184</v>
       </c>
       <c r="AH170">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AI170">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ170" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="171" spans="32:36" x14ac:dyDescent="0.2">
@@ -4569,7 +4566,7 @@
         <v>32</v>
       </c>
       <c r="AG171" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AH171">
         <v>32</v>
@@ -4578,38 +4575,38 @@
         <v>2</v>
       </c>
       <c r="AJ171" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="172" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF172">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AG172" t="s">
         <v>185</v>
       </c>
       <c r="AH172">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ172" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="173" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF173">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AG173" t="s">
         <v>186</v>
       </c>
       <c r="AH173">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AI173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ173" t="s">
         <v>42</v>
@@ -4617,33 +4614,33 @@
     </row>
     <row r="174" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF174">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG174" t="s">
         <v>187</v>
       </c>
       <c r="AH174">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ174" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="175" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF175">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AG175" t="s">
         <v>188</v>
       </c>
       <c r="AH175">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AI175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ175" t="s">
         <v>43</v>
@@ -4651,33 +4648,33 @@
     </row>
     <row r="176" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF176">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AG176" t="s">
         <v>189</v>
       </c>
       <c r="AH176">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AI176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ176" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="177" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF177">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AG177" t="s">
         <v>190</v>
       </c>
       <c r="AH177">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ177" t="s">
         <v>44</v>
@@ -4685,33 +4682,33 @@
     </row>
     <row r="178" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF178">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG178" t="s">
         <v>191</v>
       </c>
       <c r="AH178">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ178" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="179" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF179">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG179" t="s">
         <v>192</v>
       </c>
       <c r="AH179">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ179" t="s">
         <v>45</v>
@@ -4719,19 +4716,19 @@
     </row>
     <row r="180" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF180">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG180" t="s">
         <v>193</v>
       </c>
       <c r="AH180">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AI180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ180" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="181" spans="32:36" x14ac:dyDescent="0.2">
@@ -4739,33 +4736,33 @@
         <v>41</v>
       </c>
       <c r="AG181" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AH181">
         <v>41</v>
       </c>
       <c r="AI181">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ181" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="182" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF182">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG182" t="s">
         <v>194</v>
       </c>
       <c r="AH182">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI182">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ182" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="183" spans="32:36" x14ac:dyDescent="0.2">
@@ -4773,33 +4770,33 @@
         <v>42</v>
       </c>
       <c r="AG183" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AH183">
         <v>42</v>
       </c>
       <c r="AI183">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ183" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="184" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF184">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AG184" t="s">
         <v>195</v>
       </c>
       <c r="AH184">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI184">
         <v>4</v>
       </c>
       <c r="AJ184" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="185" spans="32:36" x14ac:dyDescent="0.2">
@@ -4807,33 +4804,33 @@
         <v>43</v>
       </c>
       <c r="AG185" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AH185">
         <v>43</v>
       </c>
       <c r="AI185">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ185" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="186" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF186">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG186" t="s">
         <v>196</v>
       </c>
       <c r="AH186">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI186">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ186" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="187" spans="32:36" x14ac:dyDescent="0.2">
@@ -4841,50 +4838,50 @@
         <v>44</v>
       </c>
       <c r="AG187" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AH187">
         <v>44</v>
       </c>
       <c r="AI187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ187" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="188" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF188">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG188" t="s">
         <v>197</v>
       </c>
       <c r="AH188">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ188" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="189" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF189">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AG189" t="s">
-        <v>198</v>
+        <v>115</v>
       </c>
       <c r="AH189">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ189" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="190" spans="32:36" x14ac:dyDescent="0.2">
@@ -4892,7 +4889,7 @@
         <v>46</v>
       </c>
       <c r="AG190" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH190">
         <v>46</v>
@@ -4901,7 +4898,7 @@
         <v>2</v>
       </c>
       <c r="AJ190" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="191" spans="32:36" x14ac:dyDescent="0.2">
@@ -4909,7 +4906,7 @@
         <v>46</v>
       </c>
       <c r="AG191" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH191">
         <v>46</v>
@@ -4918,7 +4915,7 @@
         <v>2</v>
       </c>
       <c r="AJ191" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
     <row r="192" spans="32:36" x14ac:dyDescent="0.2">
@@ -4926,7 +4923,7 @@
         <v>46</v>
       </c>
       <c r="AG192" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH192">
         <v>46</v>
@@ -4935,7 +4932,7 @@
         <v>2</v>
       </c>
       <c r="AJ192" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
     </row>
     <row r="193" spans="32:36" x14ac:dyDescent="0.2">
@@ -4943,7 +4940,7 @@
         <v>46</v>
       </c>
       <c r="AG193" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH193">
         <v>46</v>
@@ -4952,7 +4949,7 @@
         <v>2</v>
       </c>
       <c r="AJ193" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="194" spans="32:36" x14ac:dyDescent="0.2">
@@ -4960,7 +4957,7 @@
         <v>46</v>
       </c>
       <c r="AG194" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH194">
         <v>46</v>
@@ -4969,7 +4966,7 @@
         <v>2</v>
       </c>
       <c r="AJ194" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
     </row>
     <row r="195" spans="32:36" x14ac:dyDescent="0.2">
@@ -4977,7 +4974,7 @@
         <v>46</v>
       </c>
       <c r="AG195" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH195">
         <v>46</v>
@@ -4986,7 +4983,7 @@
         <v>2</v>
       </c>
       <c r="AJ195" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="196" spans="32:36" x14ac:dyDescent="0.2">
@@ -4994,7 +4991,7 @@
         <v>46</v>
       </c>
       <c r="AG196" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH196">
         <v>46</v>
@@ -5003,7 +5000,7 @@
         <v>2</v>
       </c>
       <c r="AJ196" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="197" spans="32:36" x14ac:dyDescent="0.2">
@@ -5011,7 +5008,7 @@
         <v>46</v>
       </c>
       <c r="AG197" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH197">
         <v>46</v>
@@ -5020,7 +5017,7 @@
         <v>2</v>
       </c>
       <c r="AJ197" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="198" spans="32:36" x14ac:dyDescent="0.2">
@@ -5028,16 +5025,16 @@
         <v>46</v>
       </c>
       <c r="AG198" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH198">
         <v>46</v>
       </c>
       <c r="AI198">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ198" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="199" spans="32:36" x14ac:dyDescent="0.2">
@@ -5045,16 +5042,16 @@
         <v>46</v>
       </c>
       <c r="AG199" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH199">
         <v>46</v>
       </c>
       <c r="AI199">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ199" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="32:36" x14ac:dyDescent="0.2">
@@ -5062,16 +5059,16 @@
         <v>46</v>
       </c>
       <c r="AG200" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH200">
         <v>46</v>
       </c>
       <c r="AI200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ200" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="201" spans="32:36" x14ac:dyDescent="0.2">
@@ -5079,16 +5076,16 @@
         <v>46</v>
       </c>
       <c r="AG201" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH201">
         <v>46</v>
       </c>
       <c r="AI201">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ201" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="202" spans="32:36" x14ac:dyDescent="0.2">
@@ -5096,16 +5093,16 @@
         <v>46</v>
       </c>
       <c r="AG202" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH202">
         <v>46</v>
       </c>
       <c r="AI202">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ202" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="203" spans="32:36" x14ac:dyDescent="0.2">
@@ -5113,7 +5110,7 @@
         <v>46</v>
       </c>
       <c r="AG203" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH203">
         <v>46</v>
@@ -5122,7 +5119,7 @@
         <v>2</v>
       </c>
       <c r="AJ203" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="204" spans="32:36" x14ac:dyDescent="0.2">
@@ -5130,7 +5127,7 @@
         <v>46</v>
       </c>
       <c r="AG204" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH204">
         <v>46</v>
@@ -5139,7 +5136,7 @@
         <v>2</v>
       </c>
       <c r="AJ204" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="205" spans="32:36" x14ac:dyDescent="0.2">
@@ -5147,7 +5144,7 @@
         <v>46</v>
       </c>
       <c r="AG205" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH205">
         <v>46</v>
@@ -5156,7 +5153,7 @@
         <v>2</v>
       </c>
       <c r="AJ205" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="206" spans="32:36" x14ac:dyDescent="0.2">
@@ -5164,16 +5161,16 @@
         <v>46</v>
       </c>
       <c r="AG206" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH206">
         <v>46</v>
       </c>
       <c r="AI206">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ206" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="207" spans="32:36" x14ac:dyDescent="0.2">
@@ -5181,16 +5178,16 @@
         <v>46</v>
       </c>
       <c r="AG207" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH207">
         <v>46</v>
       </c>
       <c r="AI207">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ207" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="208" spans="32:36" x14ac:dyDescent="0.2">
@@ -5198,7 +5195,7 @@
         <v>46</v>
       </c>
       <c r="AG208" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH208">
         <v>46</v>
@@ -5207,7 +5204,7 @@
         <v>2</v>
       </c>
       <c r="AJ208" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="209" spans="32:36" x14ac:dyDescent="0.2">
@@ -5215,7 +5212,7 @@
         <v>46</v>
       </c>
       <c r="AG209" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH209">
         <v>46</v>
@@ -5224,7 +5221,7 @@
         <v>2</v>
       </c>
       <c r="AJ209" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="210" spans="32:36" x14ac:dyDescent="0.2">
@@ -5232,7 +5229,7 @@
         <v>46</v>
       </c>
       <c r="AG210" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH210">
         <v>46</v>
@@ -5241,55 +5238,55 @@
         <v>2</v>
       </c>
       <c r="AJ210" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="211" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF211">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG211" t="s">
-        <v>116</v>
+        <v>198</v>
       </c>
       <c r="AH211">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI211">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ211" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="212" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF212">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG212" t="s">
         <v>199</v>
       </c>
       <c r="AH212">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI212">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ212" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="213" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF213">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG213" t="s">
         <v>200</v>
       </c>
       <c r="AH213">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ213" t="s">
         <v>51</v>
@@ -5297,19 +5294,19 @@
     </row>
     <row r="214" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF214">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG214" t="s">
         <v>201</v>
       </c>
       <c r="AH214">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI214">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ214" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="215" spans="32:36" x14ac:dyDescent="0.2">
@@ -5317,33 +5314,33 @@
         <v>50</v>
       </c>
       <c r="AG215" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AH215">
         <v>50</v>
       </c>
       <c r="AI215">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ215" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="216" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF216">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG216" t="s">
         <v>202</v>
       </c>
       <c r="AH216">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI216">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ216" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="217" spans="32:36" x14ac:dyDescent="0.2">
@@ -5351,33 +5348,33 @@
         <v>51</v>
       </c>
       <c r="AG217" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AH217">
         <v>51</v>
       </c>
       <c r="AI217">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ217" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="218" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF218">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG218" t="s">
         <v>203</v>
       </c>
       <c r="AH218">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI218">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ218" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="219" spans="32:36" x14ac:dyDescent="0.2">
@@ -5385,33 +5382,33 @@
         <v>52</v>
       </c>
       <c r="AG219" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH219">
         <v>52</v>
       </c>
       <c r="AI219">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ219" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="220" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF220">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG220" t="s">
         <v>204</v>
       </c>
       <c r="AH220">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AI220">
         <v>1</v>
       </c>
       <c r="AJ220" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="221" spans="32:36" x14ac:dyDescent="0.2">
@@ -5419,33 +5416,33 @@
         <v>53</v>
       </c>
       <c r="AG221" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AH221">
         <v>53</v>
       </c>
       <c r="AI221">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ221" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="222" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF222">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG222" t="s">
         <v>205</v>
       </c>
       <c r="AH222">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AI222">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ222" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="223" spans="32:36" x14ac:dyDescent="0.2">
@@ -5453,33 +5450,33 @@
         <v>54</v>
       </c>
       <c r="AG223" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH223">
         <v>54</v>
       </c>
       <c r="AI223">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ223" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="224" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF224">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG224" t="s">
         <v>206</v>
       </c>
       <c r="AH224">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI224">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ224" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="225" spans="32:36" x14ac:dyDescent="0.2">
@@ -5487,50 +5484,50 @@
         <v>55</v>
       </c>
       <c r="AG225" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AH225">
         <v>55</v>
       </c>
       <c r="AI225">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ225" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="226" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF226">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG226" t="s">
         <v>207</v>
       </c>
       <c r="AH226">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI226">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ226" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="227" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF227">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG227" t="s">
         <v>208</v>
       </c>
       <c r="AH227">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI227">
         <v>1</v>
       </c>
       <c r="AJ227" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="228" spans="32:36" x14ac:dyDescent="0.2">
@@ -5538,16 +5535,16 @@
         <v>57</v>
       </c>
       <c r="AG228" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AH228">
         <v>57</v>
       </c>
       <c r="AI228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ228" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="229" spans="32:36" x14ac:dyDescent="0.2">
@@ -5555,50 +5552,50 @@
         <v>57</v>
       </c>
       <c r="AG229" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AH229">
         <v>57</v>
       </c>
       <c r="AI229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ229" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="230" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF230">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG230" t="s">
         <v>209</v>
       </c>
       <c r="AH230">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI230">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ230" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="231" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF231">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG231" t="s">
         <v>210</v>
       </c>
       <c r="AH231">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI231">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ231" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="232" spans="32:36" x14ac:dyDescent="0.2">
@@ -5606,16 +5603,16 @@
         <v>59</v>
       </c>
       <c r="AG232" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AH232">
         <v>59</v>
       </c>
       <c r="AI232">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ232" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="233" spans="32:36" x14ac:dyDescent="0.2">
@@ -5623,47 +5620,47 @@
         <v>59</v>
       </c>
       <c r="AG233" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AH233">
         <v>59</v>
       </c>
       <c r="AI233">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ233" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="234" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF234">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG234" t="s">
         <v>211</v>
       </c>
       <c r="AH234">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AI234">
         <v>1</v>
       </c>
       <c r="AJ234" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="235" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF235">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG235" t="s">
         <v>212</v>
       </c>
       <c r="AH235">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ235" t="s">
         <v>74</v>
@@ -5671,16 +5668,16 @@
     </row>
     <row r="236" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF236">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG236" t="s">
         <v>213</v>
       </c>
       <c r="AH236">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI236">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ236" t="s">
         <v>74</v>
@@ -5688,16 +5685,16 @@
     </row>
     <row r="237" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF237">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG237" t="s">
         <v>214</v>
       </c>
       <c r="AH237">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI237">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ237" t="s">
         <v>74</v>
@@ -5708,33 +5705,33 @@
         <v>63</v>
       </c>
       <c r="AG238" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AH238">
         <v>63</v>
       </c>
       <c r="AI238">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ238" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="239" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF239">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG239" t="s">
         <v>215</v>
       </c>
       <c r="AH239">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AI239">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ239" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="240" spans="32:36" x14ac:dyDescent="0.2">
@@ -5742,16 +5739,16 @@
         <v>64</v>
       </c>
       <c r="AG240" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH240">
         <v>64</v>
       </c>
       <c r="AI240">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ240" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="241" spans="32:36" x14ac:dyDescent="0.2">
@@ -5759,33 +5756,33 @@
         <v>64</v>
       </c>
       <c r="AG241" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH241">
         <v>64</v>
       </c>
       <c r="AI241">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ241" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="242" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF242">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG242" t="s">
         <v>216</v>
       </c>
       <c r="AH242">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI242">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ242" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="243" spans="32:36" x14ac:dyDescent="0.2">
@@ -5793,33 +5790,33 @@
         <v>65</v>
       </c>
       <c r="AG243" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AH243">
         <v>65</v>
       </c>
       <c r="AI243">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ243" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="244" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF244">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG244" t="s">
         <v>217</v>
       </c>
       <c r="AH244">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AI244">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AJ244" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="245" spans="32:36" x14ac:dyDescent="0.2">
@@ -5827,16 +5824,16 @@
         <v>66</v>
       </c>
       <c r="AG245" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH245">
         <v>66</v>
       </c>
       <c r="AI245">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ245" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="246" spans="32:36" x14ac:dyDescent="0.2">
@@ -5844,7 +5841,7 @@
         <v>66</v>
       </c>
       <c r="AG246" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH246">
         <v>66</v>
@@ -5853,7 +5850,7 @@
         <v>1</v>
       </c>
       <c r="AJ246" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="247" spans="32:36" x14ac:dyDescent="0.2">
@@ -5861,7 +5858,7 @@
         <v>66</v>
       </c>
       <c r="AG247" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH247">
         <v>66</v>
@@ -5870,24 +5867,24 @@
         <v>1</v>
       </c>
       <c r="AJ247" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="248" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF248">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG248" t="s">
         <v>218</v>
       </c>
       <c r="AH248">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AI248">
         <v>1</v>
       </c>
       <c r="AJ248" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="249" spans="32:36" x14ac:dyDescent="0.2">
@@ -5895,16 +5892,16 @@
         <v>67</v>
       </c>
       <c r="AG249" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH249">
         <v>67</v>
       </c>
       <c r="AI249">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ249" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="250" spans="32:36" x14ac:dyDescent="0.2">
@@ -5912,16 +5909,16 @@
         <v>67</v>
       </c>
       <c r="AG250" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH250">
         <v>67</v>
       </c>
       <c r="AI250">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ250" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="251" spans="32:36" x14ac:dyDescent="0.2">
@@ -5929,16 +5926,16 @@
         <v>67</v>
       </c>
       <c r="AG251" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH251">
         <v>67</v>
       </c>
       <c r="AI251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ251" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="252" spans="32:36" x14ac:dyDescent="0.2">
@@ -5946,16 +5943,16 @@
         <v>67</v>
       </c>
       <c r="AG252" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH252">
         <v>67</v>
       </c>
       <c r="AI252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ252" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="253" spans="32:36" x14ac:dyDescent="0.2">
@@ -5963,7 +5960,7 @@
         <v>67</v>
       </c>
       <c r="AG253" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH253">
         <v>67</v>
@@ -5972,7 +5969,7 @@
         <v>1</v>
       </c>
       <c r="AJ253" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="254" spans="32:36" x14ac:dyDescent="0.2">
@@ -5980,7 +5977,7 @@
         <v>67</v>
       </c>
       <c r="AG254" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH254">
         <v>67</v>
@@ -5989,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="AJ254" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="255" spans="32:36" x14ac:dyDescent="0.2">
@@ -5997,7 +5994,7 @@
         <v>67</v>
       </c>
       <c r="AG255" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH255">
         <v>67</v>
@@ -6006,7 +6003,7 @@
         <v>1</v>
       </c>
       <c r="AJ255" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="256" spans="32:36" x14ac:dyDescent="0.2">
@@ -6014,7 +6011,7 @@
         <v>67</v>
       </c>
       <c r="AG256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH256">
         <v>67</v>
@@ -6023,7 +6020,7 @@
         <v>1</v>
       </c>
       <c r="AJ256" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="257" spans="32:36" x14ac:dyDescent="0.2">
@@ -6031,7 +6028,7 @@
         <v>67</v>
       </c>
       <c r="AG257" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH257">
         <v>67</v>
@@ -6040,7 +6037,7 @@
         <v>1</v>
       </c>
       <c r="AJ257" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="258" spans="32:36" x14ac:dyDescent="0.2">
@@ -6048,7 +6045,7 @@
         <v>67</v>
       </c>
       <c r="AG258" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH258">
         <v>67</v>
@@ -6057,7 +6054,7 @@
         <v>1</v>
       </c>
       <c r="AJ258" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="259" spans="32:36" x14ac:dyDescent="0.2">
@@ -6065,7 +6062,7 @@
         <v>67</v>
       </c>
       <c r="AG259" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH259">
         <v>67</v>
@@ -6074,7 +6071,7 @@
         <v>1</v>
       </c>
       <c r="AJ259" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="260" spans="32:36" x14ac:dyDescent="0.2">
@@ -6082,7 +6079,7 @@
         <v>67</v>
       </c>
       <c r="AG260" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH260">
         <v>67</v>
@@ -6091,7 +6088,7 @@
         <v>1</v>
       </c>
       <c r="AJ260" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="261" spans="32:36" x14ac:dyDescent="0.2">
@@ -6099,7 +6096,7 @@
         <v>67</v>
       </c>
       <c r="AG261" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH261">
         <v>67</v>
@@ -6108,7 +6105,7 @@
         <v>1</v>
       </c>
       <c r="AJ261" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="262" spans="32:36" x14ac:dyDescent="0.2">
@@ -6116,7 +6113,7 @@
         <v>67</v>
       </c>
       <c r="AG262" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH262">
         <v>67</v>
@@ -6125,7 +6122,7 @@
         <v>1</v>
       </c>
       <c r="AJ262" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="263" spans="32:36" x14ac:dyDescent="0.2">
@@ -6133,16 +6130,16 @@
         <v>67</v>
       </c>
       <c r="AG263" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH263">
         <v>67</v>
       </c>
       <c r="AI263">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ263" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="264" spans="32:36" x14ac:dyDescent="0.2">
@@ -6150,16 +6147,16 @@
         <v>67</v>
       </c>
       <c r="AG264" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH264">
         <v>67</v>
       </c>
       <c r="AI264">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ264" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="265" spans="32:36" x14ac:dyDescent="0.2">
@@ -6167,7 +6164,7 @@
         <v>67</v>
       </c>
       <c r="AG265" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH265">
         <v>67</v>
@@ -6176,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="AJ265" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="266" spans="32:36" x14ac:dyDescent="0.2">
@@ -6184,16 +6181,16 @@
         <v>67</v>
       </c>
       <c r="AG266" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH266">
         <v>67</v>
       </c>
       <c r="AI266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ266" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="267" spans="32:36" x14ac:dyDescent="0.2">
@@ -6201,16 +6198,16 @@
         <v>67</v>
       </c>
       <c r="AG267" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH267">
         <v>67</v>
       </c>
       <c r="AI267">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ267" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="32:36" x14ac:dyDescent="0.2">
@@ -6218,33 +6215,33 @@
         <v>67</v>
       </c>
       <c r="AG268" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH268">
         <v>67</v>
       </c>
       <c r="AI268">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ268" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="269" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF269">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG269" t="s">
         <v>219</v>
       </c>
       <c r="AH269">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI269">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AJ269" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="270" spans="32:36" x14ac:dyDescent="0.2">
@@ -6252,38 +6249,21 @@
         <v>68</v>
       </c>
       <c r="AG270" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AH270">
         <v>68</v>
       </c>
       <c r="AI270">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ270" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="271" spans="32:36" x14ac:dyDescent="0.2">
-      <c r="AF271">
-        <v>68</v>
-      </c>
-      <c r="AG271" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH271">
-        <v>68</v>
-      </c>
-      <c r="AI271">
-        <v>1</v>
-      </c>
-      <c r="AJ271" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT272">
-    <sortCondition ref="A1:A272"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT271">
+    <sortCondition ref="A1:A271"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MidiThru10/midithru10_bom.xlsx
+++ b/MidiThru10/midithru10_bom.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiThru10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA18175-FE5C-1641-9337-2381FB8E7C52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2788AAD1-EFB5-074B-8B6A-5F5B4B35EB15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="-18640" windowWidth="28040" windowHeight="16240" xr2:uid="{B1A2F949-7E6C-8644-8E19-B56F3D22CDD7}"/>
+    <workbookView xWindow="5660" yWindow="-18640" windowWidth="28040" windowHeight="16240" xr2:uid="{B1A2F949-7E6C-8644-8E19-B56F3D22CDD7}"/>
   </bookViews>
   <sheets>
     <sheet name="midithru10" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">midithru10!$A$1:$E$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">midithru10!$A$1:$E$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="141">
   <si>
     <t>Light emitting diode</t>
   </si>
@@ -453,6 +453,9 @@
   </si>
   <si>
     <t>Sockets, switches, housing:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* If you choose USB power option, then put a jumper between pin 1 and 3 on U4, those are outer pins. Leave center pin unconnected. Don't short it, etc...  </t>
   </si>
 </sst>
 </file>
@@ -651,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -674,6 +677,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -684,6 +693,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -715,8 +730,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>330199</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>72922</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>97345</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1066,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ98"/>
+  <dimension ref="A1:AJ99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="104" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="104" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1127,13 +1142,13 @@
       </c>
     </row>
     <row r="2" spans="1:36" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
       <c r="AF2">
         <v>17</v>
       </c>
@@ -2123,13 +2138,13 @@
       </c>
     </row>
     <row r="42" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="23"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="25"/>
       <c r="AF42">
         <v>35</v>
       </c>
@@ -2147,22 +2162,22 @@
       </c>
     </row>
     <row r="43" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="14"/>
     </row>
     <row r="44" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="23"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="25"/>
       <c r="AF44">
         <v>36</v>
       </c>
@@ -2179,131 +2194,123 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
+    <row r="45" spans="1:36" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="19"/>
+    </row>
+    <row r="46" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="13"/>
-      <c r="AF45">
-        <v>37</v>
-      </c>
-      <c r="AG45" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH45">
-        <v>37</v>
-      </c>
-      <c r="AI45">
-        <v>1</v>
-      </c>
-      <c r="AJ45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
       <c r="E46" s="13"/>
       <c r="AF46">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AG46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH46">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ46" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="13"/>
       <c r="AF47">
+        <v>38</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH47">
+        <v>38</v>
+      </c>
+      <c r="AI47">
+        <v>3</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A48" s="5"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="13"/>
+      <c r="AF48">
         <v>39</v>
       </c>
-      <c r="AG47" t="s">
+      <c r="AG48" t="s">
         <v>80</v>
       </c>
-      <c r="AH47">
+      <c r="AH48">
         <v>39</v>
       </c>
-      <c r="AI47">
-        <v>1</v>
-      </c>
-      <c r="AJ47" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A48" s="15"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="17"/>
-      <c r="AF48">
-        <v>40</v>
-      </c>
-      <c r="AG48" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH48">
-        <v>40</v>
-      </c>
       <c r="AI48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ48" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="32:36" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A49" s="15"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="17"/>
       <c r="AF49">
+        <v>40</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH49">
+        <v>40</v>
+      </c>
+      <c r="AI49">
+        <v>3</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AF50">
         <v>53</v>
       </c>
-      <c r="AG49" t="s">
+      <c r="AG50" t="s">
         <v>82</v>
       </c>
-      <c r="AH49">
+      <c r="AH50">
         <v>53</v>
       </c>
-      <c r="AI49">
+      <c r="AI50">
         <v>5</v>
       </c>
-      <c r="AJ49" t="s">
+      <c r="AJ50" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="32:36" x14ac:dyDescent="0.2">
-      <c r="AF50">
-        <v>54</v>
-      </c>
-      <c r="AG50" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH50">
-        <v>54</v>
-      </c>
-      <c r="AI50">
-        <v>1</v>
-      </c>
-      <c r="AJ50" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="32:36" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="AF51">
         <v>54</v>
       </c>
@@ -2314,30 +2321,30 @@
         <v>54</v>
       </c>
       <c r="AI51">
+        <v>1</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AF52">
+        <v>54</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH52">
+        <v>54</v>
+      </c>
+      <c r="AI52">
         <v>5</v>
       </c>
-      <c r="AJ51" t="s">
+      <c r="AJ52" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="32:36" x14ac:dyDescent="0.2">
-      <c r="AF52">
-        <v>55</v>
-      </c>
-      <c r="AG52" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH52">
-        <v>55</v>
-      </c>
-      <c r="AI52">
-        <v>1</v>
-      </c>
-      <c r="AJ52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="32:36" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="AF53">
         <v>55</v>
       </c>
@@ -2348,47 +2355,47 @@
         <v>55</v>
       </c>
       <c r="AI53">
+        <v>1</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AF54">
+        <v>55</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH54">
+        <v>55</v>
+      </c>
+      <c r="AI54">
         <v>5</v>
       </c>
-      <c r="AJ53" t="s">
+      <c r="AJ54" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="32:36" x14ac:dyDescent="0.2">
-      <c r="AF54">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AF55">
         <v>56</v>
       </c>
-      <c r="AG54" t="s">
+      <c r="AG55" t="s">
         <v>85</v>
       </c>
-      <c r="AH54">
+      <c r="AH55">
         <v>56</v>
       </c>
-      <c r="AI54">
-        <v>1</v>
-      </c>
-      <c r="AJ54" t="s">
+      <c r="AI55">
+        <v>1</v>
+      </c>
+      <c r="AJ55" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="32:36" x14ac:dyDescent="0.2">
-      <c r="AF55">
-        <v>57</v>
-      </c>
-      <c r="AG55" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH55">
-        <v>57</v>
-      </c>
-      <c r="AI55">
-        <v>1</v>
-      </c>
-      <c r="AJ55" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" spans="32:36" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="AF56">
         <v>57</v>
       </c>
@@ -2399,13 +2406,13 @@
         <v>57</v>
       </c>
       <c r="AI56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ56" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="32:36" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
       <c r="AF57">
         <v>57</v>
       </c>
@@ -2416,47 +2423,47 @@
         <v>57</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AF58">
+        <v>57</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH58">
+        <v>57</v>
+      </c>
+      <c r="AI58">
+        <v>1</v>
+      </c>
+      <c r="AJ58" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="32:36" x14ac:dyDescent="0.2">
-      <c r="AF58">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AF59">
         <v>58</v>
       </c>
-      <c r="AG58" t="s">
+      <c r="AG59" t="s">
         <v>87</v>
       </c>
-      <c r="AH58">
+      <c r="AH59">
         <v>58</v>
       </c>
-      <c r="AI58">
+      <c r="AI59">
         <v>4</v>
       </c>
-      <c r="AJ58" t="s">
+      <c r="AJ59" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="32:36" x14ac:dyDescent="0.2">
-      <c r="AF59">
-        <v>59</v>
-      </c>
-      <c r="AG59" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH59">
-        <v>59</v>
-      </c>
-      <c r="AI59">
-        <v>2</v>
-      </c>
-      <c r="AJ59" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" spans="32:36" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
       <c r="AF60">
         <v>59</v>
       </c>
@@ -2467,13 +2474,13 @@
         <v>59</v>
       </c>
       <c r="AI60">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ60" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="32:36" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
       <c r="AF61">
         <v>59</v>
       </c>
@@ -2484,58 +2491,58 @@
         <v>59</v>
       </c>
       <c r="AI61">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AF62">
+        <v>59</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH62">
+        <v>59</v>
+      </c>
+      <c r="AI62">
+        <v>1</v>
+      </c>
+      <c r="AJ62" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="32:36" x14ac:dyDescent="0.2">
-      <c r="AF62">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AF63">
         <v>60</v>
       </c>
-      <c r="AG62" t="s">
+      <c r="AG63" t="s">
         <v>89</v>
       </c>
-      <c r="AH62">
+      <c r="AH63">
         <v>60</v>
       </c>
-      <c r="AI62">
-        <v>1</v>
-      </c>
-      <c r="AJ62" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="32:36" x14ac:dyDescent="0.2">
-      <c r="AF63">
-        <v>61</v>
-      </c>
-      <c r="AG63" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH63">
-        <v>61</v>
-      </c>
       <c r="AI63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ63" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="32:36" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
       <c r="AF64">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH64">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ64" t="s">
         <v>46</v>
@@ -2543,16 +2550,16 @@
     </row>
     <row r="65" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF65">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AG65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH65">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AI65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ65" t="s">
         <v>46</v>
@@ -2569,27 +2576,27 @@
         <v>63</v>
       </c>
       <c r="AI66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ66" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF67">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH67">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AI67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ67" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="32:36" x14ac:dyDescent="0.2">
@@ -2603,10 +2610,10 @@
         <v>64</v>
       </c>
       <c r="AI68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ68" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="32:36" x14ac:dyDescent="0.2">
@@ -2620,27 +2627,27 @@
         <v>64</v>
       </c>
       <c r="AI69">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ69" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF70">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AG70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AH70">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AI70">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="32:36" x14ac:dyDescent="0.2">
@@ -2654,27 +2661,27 @@
         <v>65</v>
       </c>
       <c r="AI71">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AJ71" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF72">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH72">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AI72">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AJ72" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="32:36" x14ac:dyDescent="0.2">
@@ -2688,10 +2695,10 @@
         <v>66</v>
       </c>
       <c r="AI73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="32:36" x14ac:dyDescent="0.2">
@@ -2708,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="AJ74" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="32:36" x14ac:dyDescent="0.2">
@@ -2725,24 +2732,24 @@
         <v>1</v>
       </c>
       <c r="AJ75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF76">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AH76">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AI76">
         <v>1</v>
       </c>
       <c r="AJ76" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="32:36" x14ac:dyDescent="0.2">
@@ -2756,10 +2763,10 @@
         <v>67</v>
       </c>
       <c r="AI77">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ77" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="32:36" x14ac:dyDescent="0.2">
@@ -2773,10 +2780,10 @@
         <v>67</v>
       </c>
       <c r="AI78">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ78" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="32:36" x14ac:dyDescent="0.2">
@@ -2790,10 +2797,10 @@
         <v>67</v>
       </c>
       <c r="AI79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ79" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="32:36" x14ac:dyDescent="0.2">
@@ -2807,10 +2814,10 @@
         <v>67</v>
       </c>
       <c r="AI80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ80" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="32:36" x14ac:dyDescent="0.2">
@@ -2827,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="AJ81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="32:36" x14ac:dyDescent="0.2">
@@ -2844,7 +2851,7 @@
         <v>1</v>
       </c>
       <c r="AJ82" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="32:36" x14ac:dyDescent="0.2">
@@ -2861,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="AJ83" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="32:36" x14ac:dyDescent="0.2">
@@ -2878,7 +2885,7 @@
         <v>1</v>
       </c>
       <c r="AJ84" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="32:36" x14ac:dyDescent="0.2">
@@ -2895,7 +2902,7 @@
         <v>1</v>
       </c>
       <c r="AJ85" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="32:36" x14ac:dyDescent="0.2">
@@ -2912,7 +2919,7 @@
         <v>1</v>
       </c>
       <c r="AJ86" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="32:36" x14ac:dyDescent="0.2">
@@ -2929,7 +2936,7 @@
         <v>1</v>
       </c>
       <c r="AJ87" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="32:36" x14ac:dyDescent="0.2">
@@ -2946,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="AJ88" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="32:36" x14ac:dyDescent="0.2">
@@ -2963,7 +2970,7 @@
         <v>1</v>
       </c>
       <c r="AJ89" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="32:36" x14ac:dyDescent="0.2">
@@ -2980,7 +2987,7 @@
         <v>1</v>
       </c>
       <c r="AJ90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="32:36" x14ac:dyDescent="0.2">
@@ -2994,10 +3001,10 @@
         <v>67</v>
       </c>
       <c r="AI91">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ91" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="32:36" x14ac:dyDescent="0.2">
@@ -3011,10 +3018,10 @@
         <v>67</v>
       </c>
       <c r="AI92">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ92" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="32:36" x14ac:dyDescent="0.2">
@@ -3031,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="AJ93" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="32:36" x14ac:dyDescent="0.2">
@@ -3045,10 +3052,10 @@
         <v>67</v>
       </c>
       <c r="AI94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ94" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="32:36" x14ac:dyDescent="0.2">
@@ -3062,10 +3069,10 @@
         <v>67</v>
       </c>
       <c r="AI95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ95" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96" spans="32:36" x14ac:dyDescent="0.2">
@@ -3079,27 +3086,27 @@
         <v>67</v>
       </c>
       <c r="AI96">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ96" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF97">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AG97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH97">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AI97">
+        <v>14</v>
+      </c>
+      <c r="AJ97" t="s">
         <v>3</v>
-      </c>
-      <c r="AJ97" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="98" spans="32:36" x14ac:dyDescent="0.2">
@@ -3113,21 +3120,39 @@
         <v>68</v>
       </c>
       <c r="AI98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ98" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="99" spans="32:36" x14ac:dyDescent="0.2">
+      <c r="AF99">
+        <v>68</v>
+      </c>
+      <c r="AG99" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH99">
+        <v>68</v>
+      </c>
+      <c r="AI99">
+        <v>1</v>
+      </c>
+      <c r="AJ99" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT99">
-    <sortCondition ref="A1:A99"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT100">
+    <sortCondition ref="A1:A100"/>
   </sortState>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A42:E42"/>
     <mergeCell ref="A44:E44"/>
     <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A45:C45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MidiThru10/midithru10_bom.xlsx
+++ b/MidiThru10/midithru10_bom.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiThru10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2788AAD1-EFB5-074B-8B6A-5F5B4B35EB15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9889170-27F1-4443-B198-EEFEA85988B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="-18640" windowWidth="28040" windowHeight="16240" xr2:uid="{B1A2F949-7E6C-8644-8E19-B56F3D22CDD7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{B1A2F949-7E6C-8644-8E19-B56F3D22CDD7}"/>
   </bookViews>
   <sheets>
     <sheet name="midithru10" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">midithru10!$A$1:$E$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">midithru10!$A$1:$E$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="142">
   <si>
     <t>Light emitting diode</t>
   </si>
@@ -416,9 +416,6 @@
     <t xml:space="preserve">* Follow polarity orientation for LEDs. Square pad on PCB is for the negative pin. </t>
   </si>
   <si>
-    <t>* Connect a power source and meassure +5V rail such as on IC socket for 74HC14 between Pin14 and Pin7.</t>
-  </si>
-  <si>
     <t>MIDI Thru 1in -&gt; 10out splitter</t>
   </si>
   <si>
@@ -456,6 +453,12 @@
   </si>
   <si>
     <t xml:space="preserve">* If you choose USB power option, then put a jumper between pin 1 and 3 on U4, those are outer pins. Leave center pin unconnected. Don't short it, etc...  </t>
+  </si>
+  <si>
+    <t>* Connect a power source (center=positive) and meassure +5V rail such as on IC socket for 6N138 between Pin8 and Pin5.</t>
+  </si>
+  <si>
+    <t>* Beginner soldering skills required. That means you have to understand schematics, not just being able to solder two wires together. There are no high expectations, but being able to read schematics and understand polarity of components are quite important.</t>
   </si>
 </sst>
 </file>
@@ -654,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -665,7 +668,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -683,6 +685,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -695,12 +703,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,14 +730,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>977899</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>32239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>330199</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>97345</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>292729</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1081,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ99"/>
+  <dimension ref="A1:AJ100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="104" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:C45"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1142,13 +1148,13 @@
       </c>
     </row>
     <row r="2" spans="1:36" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
+      <c r="A2" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
       <c r="AF2">
         <v>17</v>
       </c>
@@ -1259,7 +1265,7 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
@@ -1429,7 +1435,7 @@
         <v>100</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14" s="4">
         <v>104</v>
@@ -1764,7 +1770,7 @@
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1822,10 +1828,10 @@
         <v>104</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="E29" s="3">
         <v>2</v>
@@ -1852,10 +1858,10 @@
         <v>38</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -1992,7 +1998,7 @@
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2053,7 +2059,7 @@
         <v>51</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E38" s="3">
         <v>1</v>
@@ -2092,13 +2098,13 @@
       </c>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="10"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="9"/>
       <c r="AF40">
         <v>33</v>
       </c>
@@ -2116,215 +2122,207 @@
       </c>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="13"/>
-      <c r="AF41">
+      <c r="A41" s="27"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="29"/>
+    </row>
+    <row r="42" spans="1:36" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
+      <c r="AF42">
         <v>34</v>
       </c>
-      <c r="AG41" t="s">
+      <c r="AG42" t="s">
         <v>75</v>
       </c>
-      <c r="AH41">
+      <c r="AH42">
         <v>34</v>
       </c>
-      <c r="AI41">
+      <c r="AI42">
         <v>3</v>
       </c>
-      <c r="AJ41" t="s">
+      <c r="AJ42" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="23" t="s">
+    <row r="43" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="26"/>
+      <c r="AF43">
+        <v>35</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH43">
+        <v>35</v>
+      </c>
+      <c r="AI43">
+        <v>1</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="25"/>
-      <c r="AF42">
-        <v>35</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH42">
-        <v>35</v>
-      </c>
-      <c r="AI42">
-        <v>1</v>
-      </c>
-      <c r="AJ42" t="s">
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="26"/>
+      <c r="AF45">
+        <v>36</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH45">
+        <v>36</v>
+      </c>
+      <c r="AI45">
+        <v>3</v>
+      </c>
+      <c r="AJ45" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="14"/>
-    </row>
-    <row r="44" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="25"/>
-      <c r="AF44">
-        <v>36</v>
-      </c>
-      <c r="AG44" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH44">
-        <v>36</v>
-      </c>
-      <c r="AI44">
-        <v>3</v>
-      </c>
-      <c r="AJ44" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:36" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="26" t="s">
+    <row r="46" spans="1:36" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="18"/>
+    </row>
+    <row r="47" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="19"/>
-    </row>
-    <row r="46" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="13"/>
-      <c r="AF46">
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="12"/>
+      <c r="AF47">
         <v>37</v>
       </c>
-      <c r="AG46" t="s">
+      <c r="AG47" t="s">
         <v>78</v>
       </c>
-      <c r="AH46">
+      <c r="AH47">
         <v>37</v>
       </c>
-      <c r="AI46">
-        <v>1</v>
-      </c>
-      <c r="AJ46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="13"/>
-      <c r="AF47">
-        <v>38</v>
-      </c>
-      <c r="AG47" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH47">
-        <v>38</v>
-      </c>
       <c r="AI47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ47" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="13"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12"/>
       <c r="AF48">
+        <v>38</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH48">
+        <v>38</v>
+      </c>
+      <c r="AI48">
+        <v>3</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A49" s="5"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="12"/>
+      <c r="AF49">
         <v>39</v>
       </c>
-      <c r="AG48" t="s">
+      <c r="AG49" t="s">
         <v>80</v>
       </c>
-      <c r="AH48">
+      <c r="AH49">
         <v>39</v>
       </c>
-      <c r="AI48">
-        <v>1</v>
-      </c>
-      <c r="AJ48" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="17"/>
-      <c r="AF49">
-        <v>40</v>
-      </c>
-      <c r="AG49" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH49">
-        <v>40</v>
-      </c>
       <c r="AI49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ49" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="16"/>
       <c r="AF50">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="AG50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH50">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="AI50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ50" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="AF51">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH51">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ51" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.2">
@@ -2338,27 +2336,27 @@
         <v>54</v>
       </c>
       <c r="AI52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ52" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="AF53">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH53">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ53" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.2">
@@ -2372,44 +2370,44 @@
         <v>55</v>
       </c>
       <c r="AI54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ54" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="AF55">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH55">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI55">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ55" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="AF56">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH56">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI56">
         <v>1</v>
       </c>
       <c r="AJ56" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.2">
@@ -2423,10 +2421,10 @@
         <v>57</v>
       </c>
       <c r="AI57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ57" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.2">
@@ -2440,44 +2438,44 @@
         <v>57</v>
       </c>
       <c r="AI58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ58" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.2">
       <c r="AF59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AG59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AI59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ59" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.2">
       <c r="AF60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AG60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AI60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ60" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.2">
@@ -2491,10 +2489,10 @@
         <v>59</v>
       </c>
       <c r="AI61">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ61" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.2">
@@ -2508,41 +2506,41 @@
         <v>59</v>
       </c>
       <c r="AI62">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ62" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.2">
       <c r="AF63">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH63">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI63">
         <v>1</v>
       </c>
       <c r="AJ63" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.2">
       <c r="AF64">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH64">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AI64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ64" t="s">
         <v>46</v>
@@ -2550,16 +2548,16 @@
     </row>
     <row r="65" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF65">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH65">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ65" t="s">
         <v>46</v>
@@ -2567,16 +2565,16 @@
     </row>
     <row r="66" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF66">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AG66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH66">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AI66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ66" t="s">
         <v>46</v>
@@ -2593,27 +2591,27 @@
         <v>63</v>
       </c>
       <c r="AI67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ67" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF68">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH68">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AI68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ68" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="32:36" x14ac:dyDescent="0.2">
@@ -2627,10 +2625,10 @@
         <v>64</v>
       </c>
       <c r="AI69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ69" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="32:36" x14ac:dyDescent="0.2">
@@ -2644,27 +2642,27 @@
         <v>64</v>
       </c>
       <c r="AI70">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ70" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF71">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AG71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AH71">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AI71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="32:36" x14ac:dyDescent="0.2">
@@ -2678,27 +2676,27 @@
         <v>65</v>
       </c>
       <c r="AI72">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AJ72" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF73">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH73">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AI73">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AJ73" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="32:36" x14ac:dyDescent="0.2">
@@ -2712,10 +2710,10 @@
         <v>66</v>
       </c>
       <c r="AI74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="32:36" x14ac:dyDescent="0.2">
@@ -2732,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="AJ75" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="32:36" x14ac:dyDescent="0.2">
@@ -2749,24 +2747,24 @@
         <v>1</v>
       </c>
       <c r="AJ76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF77">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG77" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AH77">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AI77">
         <v>1</v>
       </c>
       <c r="AJ77" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="32:36" x14ac:dyDescent="0.2">
@@ -2780,10 +2778,10 @@
         <v>67</v>
       </c>
       <c r="AI78">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ78" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="32:36" x14ac:dyDescent="0.2">
@@ -2797,10 +2795,10 @@
         <v>67</v>
       </c>
       <c r="AI79">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ79" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="32:36" x14ac:dyDescent="0.2">
@@ -2814,10 +2812,10 @@
         <v>67</v>
       </c>
       <c r="AI80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ80" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="32:36" x14ac:dyDescent="0.2">
@@ -2831,10 +2829,10 @@
         <v>67</v>
       </c>
       <c r="AI81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ81" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="32:36" x14ac:dyDescent="0.2">
@@ -2851,7 +2849,7 @@
         <v>1</v>
       </c>
       <c r="AJ82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="32:36" x14ac:dyDescent="0.2">
@@ -2868,7 +2866,7 @@
         <v>1</v>
       </c>
       <c r="AJ83" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="32:36" x14ac:dyDescent="0.2">
@@ -2885,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="AJ84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="32:36" x14ac:dyDescent="0.2">
@@ -2902,7 +2900,7 @@
         <v>1</v>
       </c>
       <c r="AJ85" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="32:36" x14ac:dyDescent="0.2">
@@ -2919,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="AJ86" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="32:36" x14ac:dyDescent="0.2">
@@ -2936,7 +2934,7 @@
         <v>1</v>
       </c>
       <c r="AJ87" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="32:36" x14ac:dyDescent="0.2">
@@ -2953,7 +2951,7 @@
         <v>1</v>
       </c>
       <c r="AJ88" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="32:36" x14ac:dyDescent="0.2">
@@ -2970,7 +2968,7 @@
         <v>1</v>
       </c>
       <c r="AJ89" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" spans="32:36" x14ac:dyDescent="0.2">
@@ -2987,7 +2985,7 @@
         <v>1</v>
       </c>
       <c r="AJ90" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="32:36" x14ac:dyDescent="0.2">
@@ -3004,7 +3002,7 @@
         <v>1</v>
       </c>
       <c r="AJ91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" spans="32:36" x14ac:dyDescent="0.2">
@@ -3018,10 +3016,10 @@
         <v>67</v>
       </c>
       <c r="AI92">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ92" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="32:36" x14ac:dyDescent="0.2">
@@ -3035,10 +3033,10 @@
         <v>67</v>
       </c>
       <c r="AI93">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ93" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="32:36" x14ac:dyDescent="0.2">
@@ -3055,7 +3053,7 @@
         <v>1</v>
       </c>
       <c r="AJ94" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="32:36" x14ac:dyDescent="0.2">
@@ -3069,10 +3067,10 @@
         <v>67</v>
       </c>
       <c r="AI95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ95" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="32:36" x14ac:dyDescent="0.2">
@@ -3086,10 +3084,10 @@
         <v>67</v>
       </c>
       <c r="AI96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ96" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97" spans="32:36" x14ac:dyDescent="0.2">
@@ -3103,27 +3101,27 @@
         <v>67</v>
       </c>
       <c r="AI97">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ97" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF98">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AG98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH98">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AI98">
+        <v>14</v>
+      </c>
+      <c r="AJ98" t="s">
         <v>3</v>
-      </c>
-      <c r="AJ98" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="99" spans="32:36" x14ac:dyDescent="0.2">
@@ -3137,26 +3135,45 @@
         <v>68</v>
       </c>
       <c r="AI99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ99" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="32:36" x14ac:dyDescent="0.2">
+      <c r="AF100">
+        <v>68</v>
+      </c>
+      <c r="AG100" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH100">
+        <v>68</v>
+      </c>
+      <c r="AI100">
+        <v>1</v>
+      </c>
+      <c r="AJ100" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT100">
-    <sortCondition ref="A1:A100"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT101">
+    <sortCondition ref="A1:A101"/>
   </sortState>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A47:C47"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A42:C42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="65" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="65" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="10"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MidiThru10/midithru10_bom.xlsx
+++ b/MidiThru10/midithru10_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiThru10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9889170-27F1-4443-B198-EEFEA85988B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8AD92A-BB55-C24C-9488-1AE1533B8B83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{B1A2F949-7E6C-8644-8E19-B56F3D22CDD7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{B1A2F949-7E6C-8644-8E19-B56F3D22CDD7}"/>
   </bookViews>
   <sheets>
     <sheet name="midithru10" sheetId="1" r:id="rId1"/>
@@ -452,13 +452,13 @@
     <t>Sockets, switches, housing:</t>
   </si>
   <si>
-    <t xml:space="preserve">* If you choose USB power option, then put a jumper between pin 1 and 3 on U4, those are outer pins. Leave center pin unconnected. Don't short it, etc...  </t>
-  </si>
-  <si>
-    <t>* Connect a power source (center=positive) and meassure +5V rail such as on IC socket for 6N138 between Pin8 and Pin5.</t>
-  </si>
-  <si>
     <t>* Beginner soldering skills required. That means you have to understand schematics, not just being able to solder two wires together. There are no high expectations, but being able to read schematics and understand polarity of components are quite important.</t>
+  </si>
+  <si>
+    <t>* Connect a power source (center=positive) and meassure +5V rail such as on IC socket for 6N138 between Pin8 and Pin5. Power on board without ICs first to avoid the damage due soldering mistakes.</t>
+  </si>
+  <si>
+    <t>* If you power from USB source or straight +5V power supply, then you need to set the jumper JP1 onto 2-3 position. If any other PSU &gt; 5V, then set it to 1-2. Please, note Pin1 has the angle marking.</t>
   </si>
 </sst>
 </file>
@@ -657,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -670,7 +670,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -685,12 +684,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -703,10 +703,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,15 +733,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>977899</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>32239</xdr:rowOff>
+      <xdr:colOff>13188</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>178778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>330199</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>292729</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>928078</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>399249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -753,7 +757,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -767,8 +771,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7547707" y="8555893"/>
-          <a:ext cx="1110761" cy="1542702"/>
+          <a:off x="6582996" y="8702432"/>
+          <a:ext cx="914890" cy="1270663"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -783,6 +787,50 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>12211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>446570</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6BA8934-2FA8-F241-8AE9-442E7C8495BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6569808" y="9989038"/>
+          <a:ext cx="2205031" cy="1392116"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1089,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="104" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="104" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1148,13 +1196,13 @@
       </c>
     </row>
     <row r="2" spans="1:36" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
       <c r="AF2">
         <v>17</v>
       </c>
@@ -1572,7 +1620,7 @@
         <v>98</v>
       </c>
       <c r="E19" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF19">
         <v>24</v>
@@ -2098,7 +2146,7 @@
       </c>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="22" t="s">
         <v>125</v>
       </c>
       <c r="B40" s="8"/>
@@ -2122,20 +2170,20 @@
       </c>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A41" s="27"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="29"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="21"/>
     </row>
     <row r="42" spans="1:36" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="12"/>
+      <c r="A42" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
       <c r="AF42">
         <v>34</v>
       </c>
@@ -2153,13 +2201,13 @@
       </c>
     </row>
     <row r="43" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="26"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="28"/>
       <c r="AF43">
         <v>35</v>
       </c>
@@ -2176,23 +2224,23 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="24" t="s">
+    <row r="44" spans="1:36" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="13"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="26"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="28"/>
       <c r="AF45">
         <v>36</v>
       </c>
@@ -2210,22 +2258,22 @@
       </c>
     </row>
     <row r="46" spans="1:36" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="18"/>
+      <c r="A46" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="17"/>
     </row>
     <row r="47" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="12"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
       <c r="AF47">
         <v>37</v>
       </c>
@@ -2243,11 +2291,11 @@
       </c>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="12"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
       <c r="AF48">
         <v>38</v>
       </c>
@@ -2266,10 +2314,10 @@
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="12"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
       <c r="AF49">
         <v>39</v>
       </c>
@@ -2287,11 +2335,11 @@
       </c>
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="16"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="15"/>
       <c r="AF50">
         <v>40</v>
       </c>
@@ -3163,11 +3211,11 @@
     <sortCondition ref="A1:A101"/>
   </sortState>
   <mergeCells count="7">
-    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A47:C48"/>
+    <mergeCell ref="A44:C44"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A43:E43"/>
     <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A44:D44"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A42:C42"/>
   </mergeCells>

--- a/MidiThru10/midithru10_bom.xlsx
+++ b/MidiThru10/midithru10_bom.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiThru10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8AD92A-BB55-C24C-9488-1AE1533B8B83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C988E851-9B4B-ED42-82D4-679A27149F0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{B1A2F949-7E6C-8644-8E19-B56F3D22CDD7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{B1A2F949-7E6C-8644-8E19-B56F3D22CDD7}"/>
   </bookViews>
   <sheets>
     <sheet name="midithru10" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">midithru10!$A$1:$E$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">midithru10!$A$1:$E$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="143">
   <si>
     <t>Light emitting diode</t>
   </si>
@@ -459,6 +459,9 @@
   </si>
   <si>
     <t>* If you power from USB source or straight +5V power supply, then you need to set the jumper JP1 onto 2-3 position. If any other PSU &gt; 5V, then set it to 1-2. Please, note Pin1 has the angle marking.</t>
+  </si>
+  <si>
+    <t>Jumper and 3-pin male header</t>
   </si>
 </sst>
 </file>
@@ -657,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -691,18 +694,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -711,6 +703,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,13 +738,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>13188</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>178778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>928078</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>399249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -795,13 +799,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>12211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>446570</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1135,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ100"/>
+  <dimension ref="A1:AJ101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="104" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="104" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1196,13 +1200,13 @@
       </c>
     </row>
     <row r="2" spans="1:36" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
       <c r="AF2">
         <v>17</v>
       </c>
@@ -1930,61 +1934,46 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AF31">
+    <row r="31" spans="1:36" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AF32">
         <v>28</v>
       </c>
-      <c r="AG31" t="s">
+      <c r="AG32" t="s">
         <v>69</v>
       </c>
-      <c r="AH31">
+      <c r="AH32">
         <v>28</v>
       </c>
-      <c r="AI31">
+      <c r="AI32">
         <v>5</v>
       </c>
-      <c r="AJ31" t="s">
+      <c r="AJ32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="AF32">
-        <v>29</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH32">
-        <v>29</v>
-      </c>
-      <c r="AI32">
-        <v>2</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
       <c r="AF33">
         <v>29</v>
       </c>
@@ -1995,39 +1984,52 @@
         <v>29</v>
       </c>
       <c r="AI33">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AJ33" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="C34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF34">
+        <v>29</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH34">
+        <v>29</v>
+      </c>
+      <c r="AI34">
+        <v>10</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF34">
-        <v>30</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH34">
-        <v>30</v>
-      </c>
-      <c r="AI34">
-        <v>2</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
       <c r="AF35">
         <v>30</v>
       </c>
@@ -2038,50 +2040,37 @@
         <v>30</v>
       </c>
       <c r="AI35">
+        <v>2</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AF36">
+        <v>30</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH36">
+        <v>30</v>
+      </c>
+      <c r="AI36">
         <v>12</v>
       </c>
-      <c r="AJ35" t="s">
+      <c r="AJ36" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="AF36">
-        <v>31</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH36">
-        <v>31</v>
-      </c>
-      <c r="AI36">
-        <v>1</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
       <c r="AF37">
         <v>31</v>
       </c>
@@ -2092,43 +2081,56 @@
         <v>31</v>
       </c>
       <c r="AI37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF38">
+        <v>31</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH38">
+        <v>31</v>
+      </c>
+      <c r="AI38">
+        <v>5</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF38">
-        <v>32</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH38">
-        <v>32</v>
-      </c>
-      <c r="AI38">
-        <v>2</v>
-      </c>
-      <c r="AJ38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
       <c r="AF39">
         <v>32</v>
       </c>
@@ -2142,252 +2144,252 @@
         <v>2</v>
       </c>
       <c r="AJ39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AF40">
+        <v>32</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH40">
+        <v>32</v>
+      </c>
+      <c r="AI40">
+        <v>2</v>
+      </c>
+      <c r="AJ40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A40" s="22" t="s">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A41" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="9"/>
-      <c r="AF40">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="9"/>
+      <c r="AF41">
         <v>33</v>
       </c>
-      <c r="AG40" t="s">
+      <c r="AG41" t="s">
         <v>74</v>
       </c>
-      <c r="AH40">
+      <c r="AH41">
         <v>33</v>
       </c>
-      <c r="AI40">
-        <v>1</v>
-      </c>
-      <c r="AJ40" t="s">
+      <c r="AI41">
+        <v>1</v>
+      </c>
+      <c r="AJ41" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="21"/>
-    </row>
-    <row r="42" spans="1:36" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="29" t="s">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A42" s="19"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
+    </row>
+    <row r="43" spans="1:36" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="AF42">
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="AF43">
         <v>34</v>
       </c>
-      <c r="AG42" t="s">
+      <c r="AG43" t="s">
         <v>75</v>
       </c>
-      <c r="AH42">
+      <c r="AH43">
         <v>34</v>
       </c>
-      <c r="AI42">
+      <c r="AI43">
         <v>3</v>
       </c>
-      <c r="AJ42" t="s">
+      <c r="AJ43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="26" t="s">
+    <row r="44" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="28"/>
-      <c r="AF43">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="33"/>
+      <c r="AF44">
         <v>35</v>
       </c>
-      <c r="AG43" t="s">
+      <c r="AG44" t="s">
         <v>76</v>
       </c>
-      <c r="AH43">
+      <c r="AH44">
         <v>35</v>
       </c>
-      <c r="AI43">
-        <v>1</v>
-      </c>
-      <c r="AJ43" t="s">
+      <c r="AI44">
+        <v>1</v>
+      </c>
+      <c r="AJ44" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="26" t="s">
+    <row r="45" spans="1:36" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="12"/>
-    </row>
-    <row r="45" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="26" t="s">
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="28"/>
-      <c r="AF45">
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="33"/>
+      <c r="AF46">
         <v>36</v>
       </c>
-      <c r="AG45" t="s">
+      <c r="AG46" t="s">
         <v>77</v>
       </c>
-      <c r="AH45">
+      <c r="AH46">
         <v>36</v>
       </c>
-      <c r="AI45">
+      <c r="AI46">
         <v>3</v>
       </c>
-      <c r="AJ45" t="s">
+      <c r="AJ46" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="29" t="s">
+    <row r="47" spans="1:36" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="17"/>
-    </row>
-    <row r="47" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="29" t="s">
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="17"/>
+    </row>
+    <row r="48" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
-      <c r="AF47">
-        <v>37</v>
-      </c>
-      <c r="AG47" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH47">
-        <v>37</v>
-      </c>
-      <c r="AI47">
-        <v>1</v>
-      </c>
-      <c r="AJ47" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A48" s="31"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
       <c r="AF48">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AG48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH48">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ48" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
       <c r="D49" s="10"/>
       <c r="E49" s="11"/>
       <c r="AF49">
+        <v>38</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH49">
+        <v>38</v>
+      </c>
+      <c r="AI49">
+        <v>3</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="11"/>
+      <c r="AF50">
         <v>39</v>
       </c>
-      <c r="AG49" t="s">
+      <c r="AG50" t="s">
         <v>80</v>
       </c>
-      <c r="AH49">
+      <c r="AH50">
         <v>39</v>
       </c>
-      <c r="AI49">
-        <v>1</v>
-      </c>
-      <c r="AJ49" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A50" s="13"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="15"/>
-      <c r="AF50">
-        <v>40</v>
-      </c>
-      <c r="AG50" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH50">
-        <v>40</v>
-      </c>
       <c r="AI50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ50" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A51" s="13"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="15"/>
       <c r="AF51">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="AG51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH51">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="AI51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ51" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="AF52">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH52">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ52" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.2">
@@ -2401,27 +2403,27 @@
         <v>54</v>
       </c>
       <c r="AI53">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ53" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.2">
       <c r="AF54">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH54">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ54" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.2">
@@ -2435,44 +2437,44 @@
         <v>55</v>
       </c>
       <c r="AI55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ55" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="AF56">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH56">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI56">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ56" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.2">
       <c r="AF57">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH57">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI57">
         <v>1</v>
       </c>
       <c r="AJ57" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.2">
@@ -2486,10 +2488,10 @@
         <v>57</v>
       </c>
       <c r="AI58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ58" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.2">
@@ -2503,44 +2505,44 @@
         <v>57</v>
       </c>
       <c r="AI59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ59" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.2">
       <c r="AF60">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AG60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH60">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AI60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ60" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.2">
       <c r="AF61">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AG61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH61">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AI61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ61" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.2">
@@ -2554,10 +2556,10 @@
         <v>59</v>
       </c>
       <c r="AI62">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ62" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.2">
@@ -2571,41 +2573,41 @@
         <v>59</v>
       </c>
       <c r="AI63">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ63" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.2">
       <c r="AF64">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH64">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI64">
         <v>1</v>
       </c>
       <c r="AJ64" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF65">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH65">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AI65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ65" t="s">
         <v>46</v>
@@ -2613,16 +2615,16 @@
     </row>
     <row r="66" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF66">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH66">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ66" t="s">
         <v>46</v>
@@ -2630,16 +2632,16 @@
     </row>
     <row r="67" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF67">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AG67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH67">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AI67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ67" t="s">
         <v>46</v>
@@ -2656,27 +2658,27 @@
         <v>63</v>
       </c>
       <c r="AI68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ68" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF69">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH69">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AI69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ69" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="32:36" x14ac:dyDescent="0.2">
@@ -2690,10 +2692,10 @@
         <v>64</v>
       </c>
       <c r="AI70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ70" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="32:36" x14ac:dyDescent="0.2">
@@ -2707,27 +2709,27 @@
         <v>64</v>
       </c>
       <c r="AI71">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ71" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF72">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AG72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AH72">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AI72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="32:36" x14ac:dyDescent="0.2">
@@ -2741,27 +2743,27 @@
         <v>65</v>
       </c>
       <c r="AI73">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AJ73" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF74">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH74">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AI74">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AJ74" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="32:36" x14ac:dyDescent="0.2">
@@ -2775,10 +2777,10 @@
         <v>66</v>
       </c>
       <c r="AI75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="32:36" x14ac:dyDescent="0.2">
@@ -2795,7 +2797,7 @@
         <v>1</v>
       </c>
       <c r="AJ76" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="32:36" x14ac:dyDescent="0.2">
@@ -2812,24 +2814,24 @@
         <v>1</v>
       </c>
       <c r="AJ77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF78">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG78" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AH78">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AI78">
         <v>1</v>
       </c>
       <c r="AJ78" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="32:36" x14ac:dyDescent="0.2">
@@ -2843,10 +2845,10 @@
         <v>67</v>
       </c>
       <c r="AI79">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ79" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="32:36" x14ac:dyDescent="0.2">
@@ -2860,10 +2862,10 @@
         <v>67</v>
       </c>
       <c r="AI80">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ80" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="32:36" x14ac:dyDescent="0.2">
@@ -2877,10 +2879,10 @@
         <v>67</v>
       </c>
       <c r="AI81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ81" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="32:36" x14ac:dyDescent="0.2">
@@ -2894,10 +2896,10 @@
         <v>67</v>
       </c>
       <c r="AI82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ82" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="32:36" x14ac:dyDescent="0.2">
@@ -2914,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="AJ83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="32:36" x14ac:dyDescent="0.2">
@@ -2931,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="AJ84" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="32:36" x14ac:dyDescent="0.2">
@@ -2948,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="AJ85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" spans="32:36" x14ac:dyDescent="0.2">
@@ -2965,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="AJ86" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="32:36" x14ac:dyDescent="0.2">
@@ -2982,7 +2984,7 @@
         <v>1</v>
       </c>
       <c r="AJ87" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="32:36" x14ac:dyDescent="0.2">
@@ -2999,7 +3001,7 @@
         <v>1</v>
       </c>
       <c r="AJ88" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="32:36" x14ac:dyDescent="0.2">
@@ -3016,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="AJ89" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="32:36" x14ac:dyDescent="0.2">
@@ -3033,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="AJ90" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="32:36" x14ac:dyDescent="0.2">
@@ -3050,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="AJ91" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="32:36" x14ac:dyDescent="0.2">
@@ -3067,7 +3069,7 @@
         <v>1</v>
       </c>
       <c r="AJ92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" spans="32:36" x14ac:dyDescent="0.2">
@@ -3081,10 +3083,10 @@
         <v>67</v>
       </c>
       <c r="AI93">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ93" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="32:36" x14ac:dyDescent="0.2">
@@ -3098,10 +3100,10 @@
         <v>67</v>
       </c>
       <c r="AI94">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ94" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="32:36" x14ac:dyDescent="0.2">
@@ -3118,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="AJ95" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="32:36" x14ac:dyDescent="0.2">
@@ -3132,10 +3134,10 @@
         <v>67</v>
       </c>
       <c r="AI96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ96" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="32:36" x14ac:dyDescent="0.2">
@@ -3149,10 +3151,10 @@
         <v>67</v>
       </c>
       <c r="AI97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ97" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="32:36" x14ac:dyDescent="0.2">
@@ -3166,27 +3168,27 @@
         <v>67</v>
       </c>
       <c r="AI98">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ98" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF99">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AG99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH99">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AI99">
+        <v>14</v>
+      </c>
+      <c r="AJ99" t="s">
         <v>3</v>
-      </c>
-      <c r="AJ99" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="100" spans="32:36" x14ac:dyDescent="0.2">
@@ -3200,24 +3202,41 @@
         <v>68</v>
       </c>
       <c r="AI100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ100" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="32:36" x14ac:dyDescent="0.2">
+      <c r="AF101">
+        <v>68</v>
+      </c>
+      <c r="AG101" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH101">
+        <v>68</v>
+      </c>
+      <c r="AI101">
+        <v>1</v>
+      </c>
+      <c r="AJ101" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT101">
-    <sortCondition ref="A1:A101"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT102">
+    <sortCondition ref="A1:A102"/>
   </sortState>
   <mergeCells count="7">
-    <mergeCell ref="A47:C48"/>
-    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A48:C49"/>
+    <mergeCell ref="A45:C45"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A43:C43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
